--- a/MetroParis.xlsx
+++ b/MetroParis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/aline_ellul_devinci_fr/Documents/Documents/CoursESILV2024/PSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e388d8049af18740/Bureau/Projet GitHub/PSI Fonctionnel/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{2D18A237-38E5-4689-ABE5-79FA11E659EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEDFCF2-DC8D-481B-8C56-0114B31AC1C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF546CC-0758-4B2D-B247-6800EF260704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Noeuds" sheetId="1" r:id="rId1"/>
@@ -2422,10 +2422,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2463,7 +2467,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2569,7 +2573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2711,7 +2715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2721,16 +2725,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C46" sqref="C46:C333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>764</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3558,7 +3562,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3627,7 +3631,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3926,7 +3930,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4087,7 +4091,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4156,7 +4160,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4202,7 +4206,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4363,7 +4367,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4501,7 +4505,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4524,7 +4528,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4662,7 +4666,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4708,7 +4712,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5030,7 +5034,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5122,7 +5126,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5191,7 +5195,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5352,7 +5356,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5490,7 +5494,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5513,7 +5517,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5697,7 +5701,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5927,7 +5931,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6088,7 +6092,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6111,7 +6115,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6318,7 +6322,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6364,7 +6368,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6456,7 +6460,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6571,7 +6575,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6732,7 +6736,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6847,7 +6851,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7031,7 +7035,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7054,7 +7058,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7077,7 +7081,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7123,7 +7127,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7215,7 +7219,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7284,7 +7288,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7307,7 +7311,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7399,7 +7403,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7491,7 +7495,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7537,7 +7541,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7606,7 +7610,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7698,7 +7702,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7721,7 +7725,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7790,7 +7794,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7859,7 +7863,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7882,7 +7886,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7905,7 +7909,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7997,7 +8001,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8043,7 +8047,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8066,7 +8070,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8181,7 +8185,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8204,7 +8208,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8273,7 +8277,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8296,7 +8300,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8319,7 +8323,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8342,7 +8346,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8411,7 +8415,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8434,7 +8438,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
@@ -8503,7 +8507,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -8618,7 +8622,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8687,7 +8691,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8733,7 +8737,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8756,7 +8760,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8779,7 +8783,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8802,7 +8806,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8917,7 +8921,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8940,7 +8944,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9009,7 +9013,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9055,7 +9059,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9078,7 +9082,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9101,7 +9105,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9124,7 +9128,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9193,7 +9197,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9239,7 +9243,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9285,7 +9289,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9308,7 +9312,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9377,7 +9381,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9400,7 +9404,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9423,7 +9427,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9446,7 +9450,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9469,7 +9473,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9492,7 +9496,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9561,7 +9565,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9584,7 +9588,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9607,7 +9611,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9676,7 +9680,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
@@ -9745,7 +9749,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -9791,7 +9795,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
@@ -9883,7 +9887,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
@@ -9929,7 +9933,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
@@ -9952,7 +9956,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
@@ -9975,7 +9979,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
@@ -9998,7 +10002,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10021,7 +10025,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10067,7 +10071,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10113,7 +10117,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10136,7 +10140,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10159,7 +10163,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10182,7 +10186,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10205,7 +10209,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>325</v>
       </c>
@@ -10228,7 +10232,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10251,7 +10255,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10297,7 +10301,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10399,18 +10403,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E322" sqref="E322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.86328125" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -10430,7 +10434,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10463,7 +10467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10485,7 +10489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10542,7 +10546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10561,7 +10565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10580,7 +10584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10599,7 +10603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10618,7 +10622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10637,7 +10641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10656,7 +10660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10694,7 +10698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10732,7 +10736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10751,7 +10755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10770,7 +10774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10801,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10818,7 +10822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10838,7 +10842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10872,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10889,7 +10893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10906,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10923,7 +10927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10940,7 +10944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10957,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10992,7 +10996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11011,7 +11015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11030,7 +11034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11049,7 +11053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11068,7 +11072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11087,7 +11091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11106,7 +11110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11125,7 +11129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11144,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11182,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11201,7 +11205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11218,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11233,2308 +11237,5083 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:E111" ca="1" si="4">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>51</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>52</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>53</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>54</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>57</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>58</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>59</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>61</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>62</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>63</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>65</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>67</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>71</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>72</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>73</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>74</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>76</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>77</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>78</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>79</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>80</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>81</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>82</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <v>84</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <v>85</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <v>86</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <v>87</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <v>88</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <v>89</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <v>90</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>91</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>92</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>93</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>94</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <v>95</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>97</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>98</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99">
+        <v>99</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101">
+        <v>101</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>102</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>101</v>
+      </c>
+      <c r="D103">
+        <v>103</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <v>104</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105">
+        <v>105</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106">
+        <v>106</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <v>107</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108">
+        <v>108</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>107</v>
+      </c>
+      <c r="D109">
+        <v>109</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>108</v>
+      </c>
+      <c r="D110">
+        <v>110</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
+        <v>111</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
+        <v>112</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ref="E112:E175" ca="1" si="5">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>111</v>
+      </c>
+      <c r="D113">
+        <v>113</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>115</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <v>116</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>115</v>
+      </c>
+      <c r="D117">
+        <v>117</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>116</v>
+      </c>
+      <c r="D118">
+        <v>118</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>117</v>
+      </c>
+      <c r="D119">
+        <v>119</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <v>120</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <v>121</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>120</v>
+      </c>
+      <c r="D122">
+        <v>122</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <v>123</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>122</v>
+      </c>
+      <c r="D124">
+        <v>124</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>123</v>
+      </c>
+      <c r="D125">
+        <v>125</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <v>126</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>125</v>
+      </c>
+      <c r="D127">
+        <v>127</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>126</v>
+      </c>
+      <c r="D128">
+        <v>128</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>127</v>
+      </c>
+      <c r="D129">
+        <v>129</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>128</v>
+      </c>
+      <c r="D130">
+        <v>130</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>129</v>
+      </c>
+      <c r="D131">
+        <v>131</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>130</v>
+      </c>
+      <c r="D132">
+        <v>132</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>131</v>
+      </c>
+      <c r="D133">
+        <v>133</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>132</v>
+      </c>
+      <c r="D134">
+        <v>134</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>133</v>
+      </c>
+      <c r="D135">
+        <v>135</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>134</v>
+      </c>
+      <c r="D136">
+        <v>136</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>135</v>
+      </c>
+      <c r="D137">
+        <v>137</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <v>138</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>137</v>
+      </c>
+      <c r="D139">
+        <v>139</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>138</v>
+      </c>
+      <c r="D140">
+        <v>140</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>139</v>
+      </c>
+      <c r="D141">
+        <v>141</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>140</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <v>143</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>142</v>
+      </c>
+      <c r="D144">
+        <v>144</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>143</v>
+      </c>
+      <c r="D145">
+        <v>145</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>144</v>
+      </c>
+      <c r="D146">
+        <v>146</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>145</v>
+      </c>
+      <c r="D147">
+        <v>147</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>146</v>
+      </c>
+      <c r="D148">
+        <v>148</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>147</v>
+      </c>
+      <c r="D149">
+        <v>149</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>148</v>
+      </c>
+      <c r="D150">
+        <v>150</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>149</v>
+      </c>
+      <c r="D151">
+        <v>151</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152">
+        <v>152</v>
+      </c>
+      <c r="E152">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>151</v>
+      </c>
+      <c r="D153">
+        <v>153</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>152</v>
+      </c>
+      <c r="D154">
+        <v>154</v>
+      </c>
+      <c r="E154">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>153</v>
+      </c>
+      <c r="D155">
+        <v>155</v>
+      </c>
+      <c r="E155">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>154</v>
+      </c>
+      <c r="D156">
+        <v>156</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>155</v>
+      </c>
+      <c r="D157">
+        <v>157</v>
+      </c>
+      <c r="E157">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <v>158</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>157</v>
+      </c>
+      <c r="D159">
+        <v>159</v>
+      </c>
+      <c r="E159">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <v>160</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>159</v>
+      </c>
+      <c r="D161">
+        <v>161</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>160</v>
+      </c>
+      <c r="D162">
+        <v>162</v>
+      </c>
+      <c r="E162">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>161</v>
+      </c>
+      <c r="D163">
+        <v>163</v>
+      </c>
+      <c r="E163">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>162</v>
+      </c>
+      <c r="D164">
+        <v>164</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <v>165</v>
+      </c>
+      <c r="E165">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>164</v>
+      </c>
+      <c r="D166">
+        <v>166</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>165</v>
+      </c>
+      <c r="D167">
+        <v>167</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>166</v>
+      </c>
+      <c r="D168">
+        <v>168</v>
+      </c>
+      <c r="E168">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>167</v>
+      </c>
+      <c r="D169">
+        <v>169</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>168</v>
+      </c>
+      <c r="D170">
+        <v>170</v>
+      </c>
+      <c r="E170">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>169</v>
+      </c>
+      <c r="E171">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>172</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>171</v>
+      </c>
+      <c r="D173">
+        <v>173</v>
+      </c>
+      <c r="E173">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>172</v>
+      </c>
+      <c r="D174">
+        <v>174</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>173</v>
+      </c>
+      <c r="D175">
+        <v>175</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>174</v>
+      </c>
+      <c r="D176">
+        <v>176</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ref="E176:E239" ca="1" si="6">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>175</v>
+      </c>
+      <c r="D177">
+        <v>177</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>176</v>
+      </c>
+      <c r="D178">
+        <v>178</v>
+      </c>
+      <c r="E178">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>177</v>
+      </c>
+      <c r="D179">
+        <v>179</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>178</v>
+      </c>
+      <c r="D180">
+        <v>180</v>
+      </c>
+      <c r="E180">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>179</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>182</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>181</v>
+      </c>
+      <c r="D183">
+        <v>183</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <v>184</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>183</v>
+      </c>
+      <c r="D185">
+        <v>185</v>
+      </c>
+      <c r="E185">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>184</v>
+      </c>
+      <c r="D186">
+        <v>186</v>
+      </c>
+      <c r="E186">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>185</v>
+      </c>
+      <c r="D187">
+        <v>187</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>186</v>
+      </c>
+      <c r="D188">
+        <v>188</v>
+      </c>
+      <c r="E188">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>187</v>
+      </c>
+      <c r="D189">
+        <v>189</v>
+      </c>
+      <c r="E189">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>188</v>
+      </c>
+      <c r="D190">
+        <v>190</v>
+      </c>
+      <c r="E190">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>189</v>
+      </c>
+      <c r="D191">
+        <v>191</v>
+      </c>
+      <c r="E191">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>190</v>
+      </c>
+      <c r="D192">
+        <v>192</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>191</v>
+      </c>
+      <c r="D193">
+        <v>193</v>
+      </c>
+      <c r="E193">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>192</v>
+      </c>
+      <c r="D194">
+        <v>194</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>193</v>
+      </c>
+      <c r="D195">
+        <v>195</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>194</v>
+      </c>
+      <c r="D196">
+        <v>196</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>195</v>
+      </c>
+      <c r="D197">
+        <v>197</v>
+      </c>
+      <c r="E197">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>196</v>
+      </c>
+      <c r="D198">
+        <v>198</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>197</v>
+      </c>
+      <c r="D199">
+        <v>199</v>
+      </c>
+      <c r="E199">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>198</v>
+      </c>
+      <c r="D200">
+        <v>200</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>199</v>
+      </c>
+      <c r="D201">
+        <v>201</v>
+      </c>
+      <c r="E201">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>200</v>
+      </c>
+      <c r="D202">
+        <v>202</v>
+      </c>
+      <c r="E202">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>201</v>
+      </c>
+      <c r="D203">
+        <v>203</v>
+      </c>
+      <c r="E203">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>202</v>
+      </c>
+      <c r="D204">
+        <v>204</v>
+      </c>
+      <c r="E204">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>203</v>
+      </c>
+      <c r="D205">
+        <v>205</v>
+      </c>
+      <c r="E205">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>204</v>
+      </c>
+      <c r="D206">
+        <v>206</v>
+      </c>
+      <c r="E206">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>205</v>
+      </c>
+      <c r="D207">
+        <v>207</v>
+      </c>
+      <c r="E207">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>206</v>
+      </c>
+      <c r="D208">
+        <v>208</v>
+      </c>
+      <c r="E208">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>207</v>
+      </c>
+      <c r="D209">
+        <v>209</v>
+      </c>
+      <c r="E209">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210">
+        <v>208</v>
+      </c>
+      <c r="E210">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>211</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212">
+        <v>210</v>
+      </c>
+      <c r="D212">
+        <v>212</v>
+      </c>
+      <c r="E212">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213">
+        <v>211</v>
+      </c>
+      <c r="D213">
+        <v>213</v>
+      </c>
+      <c r="E213">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214">
+        <v>212</v>
+      </c>
+      <c r="D214">
+        <v>214</v>
+      </c>
+      <c r="E214">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215">
+        <v>213</v>
+      </c>
+      <c r="D215">
+        <v>215</v>
+      </c>
+      <c r="E215">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>214</v>
+      </c>
+      <c r="D216">
+        <v>216</v>
+      </c>
+      <c r="E216">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>215</v>
+      </c>
+      <c r="D217">
+        <v>217</v>
+      </c>
+      <c r="E217">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218">
+        <v>216</v>
+      </c>
+      <c r="D218">
+        <v>218</v>
+      </c>
+      <c r="E218">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>217</v>
+      </c>
+      <c r="D219">
+        <v>219</v>
+      </c>
+      <c r="E219">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>218</v>
+      </c>
+      <c r="D220">
+        <v>220</v>
+      </c>
+      <c r="E220">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>219</v>
+      </c>
+      <c r="D221">
+        <v>221</v>
+      </c>
+      <c r="E221">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222">
+        <v>220</v>
+      </c>
+      <c r="D222">
+        <v>222</v>
+      </c>
+      <c r="E222">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>221</v>
+      </c>
+      <c r="D223">
+        <v>223</v>
+      </c>
+      <c r="E223">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>222</v>
+      </c>
+      <c r="D224">
+        <v>224</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>223</v>
+      </c>
+      <c r="D225">
+        <v>225</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226">
+        <v>224</v>
+      </c>
+      <c r="D226">
+        <v>226</v>
+      </c>
+      <c r="E226">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>225</v>
+      </c>
+      <c r="D227">
+        <v>227</v>
+      </c>
+      <c r="E227">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>226</v>
+      </c>
+      <c r="D228">
+        <v>228</v>
+      </c>
+      <c r="E228">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>227</v>
+      </c>
+      <c r="D229">
+        <v>229</v>
+      </c>
+      <c r="E229">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230">
+        <v>228</v>
+      </c>
+      <c r="D230">
+        <v>230</v>
+      </c>
+      <c r="E230">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>229</v>
+      </c>
+      <c r="D231">
+        <v>231</v>
+      </c>
+      <c r="E231">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>230</v>
+      </c>
+      <c r="D232">
+        <v>232</v>
+      </c>
+      <c r="E232">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>231</v>
+      </c>
+      <c r="D233">
+        <v>233</v>
+      </c>
+      <c r="E233">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>232</v>
+      </c>
+      <c r="D234">
+        <v>234</v>
+      </c>
+      <c r="E234">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>233</v>
+      </c>
+      <c r="D235">
+        <v>235</v>
+      </c>
+      <c r="E235">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>234</v>
+      </c>
+      <c r="D236">
+        <v>236</v>
+      </c>
+      <c r="E236">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>235</v>
+      </c>
+      <c r="D237">
+        <v>237</v>
+      </c>
+      <c r="E237">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>236</v>
+      </c>
+      <c r="D238">
+        <v>238</v>
+      </c>
+      <c r="E238">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>237</v>
+      </c>
+      <c r="D239">
+        <v>239</v>
+      </c>
+      <c r="E239">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>238</v>
+      </c>
+      <c r="D240">
+        <v>240</v>
+      </c>
+      <c r="E240">
+        <f t="shared" ref="E240:E303" ca="1" si="7">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>239</v>
+      </c>
+      <c r="E241">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>242</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>241</v>
+      </c>
+      <c r="D243">
+        <v>243</v>
+      </c>
+      <c r="E243">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244">
+        <v>242</v>
+      </c>
+      <c r="D244">
+        <v>244</v>
+      </c>
+      <c r="E244">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245">
+        <v>243</v>
+      </c>
+      <c r="D245">
+        <v>245</v>
+      </c>
+      <c r="E245">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>244</v>
+      </c>
+      <c r="D246">
+        <v>246</v>
+      </c>
+      <c r="E246">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>245</v>
+      </c>
+      <c r="D247">
+        <v>247</v>
+      </c>
+      <c r="E247">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248">
+        <v>246</v>
+      </c>
+      <c r="D248">
+        <v>248</v>
+      </c>
+      <c r="E248">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249">
+        <v>247</v>
+      </c>
+      <c r="D249">
+        <v>249</v>
+      </c>
+      <c r="E249">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250">
+        <v>248</v>
+      </c>
+      <c r="D250">
+        <v>250</v>
+      </c>
+      <c r="E250">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>249</v>
+      </c>
+      <c r="D251">
+        <v>251</v>
+      </c>
+      <c r="E251">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252">
+        <v>250</v>
+      </c>
+      <c r="D252">
+        <v>252</v>
+      </c>
+      <c r="E252">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>251</v>
+      </c>
+      <c r="D253">
+        <v>253</v>
+      </c>
+      <c r="E253">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254">
+        <v>252</v>
+      </c>
+      <c r="D254">
+        <v>254</v>
+      </c>
+      <c r="E254">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>253</v>
+      </c>
+      <c r="D255">
+        <v>255</v>
+      </c>
+      <c r="E255">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256">
+        <v>254</v>
+      </c>
+      <c r="D256">
+        <v>256</v>
+      </c>
+      <c r="E256">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>255</v>
+      </c>
+      <c r="D257">
+        <v>257</v>
+      </c>
+      <c r="E257">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258">
+        <v>256</v>
+      </c>
+      <c r="D258">
+        <v>258</v>
+      </c>
+      <c r="E258">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259">
+        <v>257</v>
+      </c>
+      <c r="E259">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>260</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>259</v>
+      </c>
+      <c r="D261">
+        <v>261</v>
+      </c>
+      <c r="E261">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262">
+        <v>260</v>
+      </c>
+      <c r="E262">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>263</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>262</v>
+      </c>
+      <c r="D264">
+        <v>264</v>
+      </c>
+      <c r="E264">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>263</v>
+      </c>
+      <c r="D265">
+        <v>265</v>
+      </c>
+      <c r="E265">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>264</v>
+      </c>
+      <c r="D266">
+        <v>266</v>
+      </c>
+      <c r="E266">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>265</v>
+      </c>
+      <c r="D267">
+        <v>267</v>
+      </c>
+      <c r="E267">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>266</v>
+      </c>
+      <c r="D268">
+        <v>268</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C269">
+        <v>267</v>
+      </c>
+      <c r="D269">
+        <v>269</v>
+      </c>
+      <c r="E269">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270">
+        <v>268</v>
+      </c>
+      <c r="D270">
+        <v>270</v>
+      </c>
+      <c r="E270">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271">
+        <v>269</v>
+      </c>
+      <c r="D271">
+        <v>271</v>
+      </c>
+      <c r="E271">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>270</v>
+      </c>
+      <c r="D272">
+        <v>272</v>
+      </c>
+      <c r="E272">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>271</v>
+      </c>
+      <c r="D273">
+        <v>273</v>
+      </c>
+      <c r="E273">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274">
+        <v>272</v>
+      </c>
+      <c r="E274">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>275</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276">
+        <v>274</v>
+      </c>
+      <c r="D276">
+        <v>276</v>
+      </c>
+      <c r="E276">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>275</v>
+      </c>
+      <c r="D277">
+        <v>277</v>
+      </c>
+      <c r="E277">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278">
+        <v>276</v>
+      </c>
+      <c r="D278">
+        <v>278</v>
+      </c>
+      <c r="E278">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>277</v>
+      </c>
+      <c r="D279">
+        <v>279</v>
+      </c>
+      <c r="E279">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280">
+        <v>278</v>
+      </c>
+      <c r="D280">
+        <v>280</v>
+      </c>
+      <c r="E280">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281">
+        <v>279</v>
+      </c>
+      <c r="D281">
+        <v>281</v>
+      </c>
+      <c r="E281">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282">
+        <v>280</v>
+      </c>
+      <c r="D282">
+        <v>282</v>
+      </c>
+      <c r="E282">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>281</v>
+      </c>
+      <c r="D283">
+        <v>283</v>
+      </c>
+      <c r="E283">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284">
+        <v>282</v>
+      </c>
+      <c r="D284">
+        <v>284</v>
+      </c>
+      <c r="E284">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>283</v>
+      </c>
+      <c r="D285">
+        <v>285</v>
+      </c>
+      <c r="E285">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286">
+        <v>284</v>
+      </c>
+      <c r="D286">
+        <v>286</v>
+      </c>
+      <c r="E286">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>285</v>
+      </c>
+      <c r="D287">
+        <v>287</v>
+      </c>
+      <c r="E287">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288">
+        <v>286</v>
+      </c>
+      <c r="D288">
+        <v>288</v>
+      </c>
+      <c r="E288">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>287</v>
+      </c>
+      <c r="D289">
+        <v>289</v>
+      </c>
+      <c r="E289">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290">
+        <v>288</v>
+      </c>
+      <c r="D290">
+        <v>290</v>
+      </c>
+      <c r="E290">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>289</v>
+      </c>
+      <c r="D291">
+        <v>291</v>
+      </c>
+      <c r="E291">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>290</v>
+      </c>
+      <c r="D292">
+        <v>292</v>
+      </c>
+      <c r="E292">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>291</v>
+      </c>
+      <c r="D293">
+        <v>293</v>
+      </c>
+      <c r="E293">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294">
+        <v>292</v>
+      </c>
+      <c r="D294">
+        <v>294</v>
+      </c>
+      <c r="E294">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295">
+        <v>293</v>
+      </c>
+      <c r="D295">
+        <v>295</v>
+      </c>
+      <c r="E295">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296">
+        <v>294</v>
+      </c>
+      <c r="D296">
+        <v>296</v>
+      </c>
+      <c r="E296">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297">
+        <v>295</v>
+      </c>
+      <c r="D297">
+        <v>297</v>
+      </c>
+      <c r="E297">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298">
+        <v>296</v>
+      </c>
+      <c r="D298">
+        <v>298</v>
+      </c>
+      <c r="E298">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299">
+        <v>297</v>
+      </c>
+      <c r="D299">
+        <v>299</v>
+      </c>
+      <c r="E299">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <v>298</v>
+      </c>
+      <c r="E300">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <v>301</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302">
+        <v>300</v>
+      </c>
+      <c r="D302">
+        <v>302</v>
+      </c>
+      <c r="E302">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C303">
+        <v>301</v>
+      </c>
+      <c r="D303">
+        <v>303</v>
+      </c>
+      <c r="E303">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C304">
+        <v>302</v>
+      </c>
+      <c r="D304">
+        <v>304</v>
+      </c>
+      <c r="E304">
+        <f t="shared" ref="E304:E333" ca="1" si="8">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305">
+        <v>303</v>
+      </c>
+      <c r="D305">
+        <v>305</v>
+      </c>
+      <c r="E305">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C306">
+        <v>304</v>
+      </c>
+      <c r="D306">
+        <v>306</v>
+      </c>
+      <c r="E306">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C307">
+        <v>305</v>
+      </c>
+      <c r="D307">
+        <v>307</v>
+      </c>
+      <c r="E307">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C308">
+        <v>306</v>
+      </c>
+      <c r="D308">
+        <v>308</v>
+      </c>
+      <c r="E308">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>307</v>
+      </c>
+      <c r="D309">
+        <v>309</v>
+      </c>
+      <c r="E309">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310">
+        <v>308</v>
+      </c>
+      <c r="D310">
+        <v>310</v>
+      </c>
+      <c r="E310">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311">
+        <v>309</v>
+      </c>
+      <c r="D311">
+        <v>311</v>
+      </c>
+      <c r="E311">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312">
+        <v>310</v>
+      </c>
+      <c r="D312">
+        <v>312</v>
+      </c>
+      <c r="E312">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C313">
+        <v>311</v>
+      </c>
+      <c r="D313">
+        <v>313</v>
+      </c>
+      <c r="E313">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C314">
+        <v>312</v>
+      </c>
+      <c r="D314">
+        <v>314</v>
+      </c>
+      <c r="E314">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315">
+        <v>313</v>
+      </c>
+      <c r="D315">
+        <v>315</v>
+      </c>
+      <c r="E315">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316">
+        <v>314</v>
+      </c>
+      <c r="D316">
+        <v>316</v>
+      </c>
+      <c r="E316">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C317">
+        <v>315</v>
+      </c>
+      <c r="D317">
+        <v>317</v>
+      </c>
+      <c r="E317">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318">
+        <v>313</v>
+      </c>
+      <c r="D318">
+        <v>318</v>
+      </c>
+      <c r="E318">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319">
+        <v>317</v>
+      </c>
+      <c r="D319">
+        <v>319</v>
+      </c>
+      <c r="E319">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320">
+        <v>318</v>
+      </c>
+      <c r="E320">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D321">
+        <v>321</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322">
+        <v>320</v>
+      </c>
+      <c r="D322">
+        <v>322</v>
+      </c>
+      <c r="E322">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323">
+        <v>321</v>
+      </c>
+      <c r="D323">
+        <v>323</v>
+      </c>
+      <c r="E323">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324">
+        <v>322</v>
+      </c>
+      <c r="D324">
+        <v>324</v>
+      </c>
+      <c r="E324">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325">
+        <v>323</v>
+      </c>
+      <c r="D325">
+        <v>325</v>
+      </c>
+      <c r="E325">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326">
+        <v>324</v>
+      </c>
+      <c r="D326">
+        <v>326</v>
+      </c>
+      <c r="E326">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327">
+        <v>325</v>
+      </c>
+      <c r="D327">
+        <v>327</v>
+      </c>
+      <c r="E327">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C328">
+        <v>326</v>
+      </c>
+      <c r="D328">
+        <v>328</v>
+      </c>
+      <c r="E328">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329">
+        <v>327</v>
+      </c>
+      <c r="D329">
+        <v>329</v>
+      </c>
+      <c r="E329">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C330">
+        <v>328</v>
+      </c>
+      <c r="D330">
+        <v>330</v>
+      </c>
+      <c r="E330">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331">
+        <v>329</v>
+      </c>
+      <c r="D331">
+        <v>331</v>
+      </c>
+      <c r="E331">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C332">
+        <v>330</v>
+      </c>
+      <c r="D332">
+        <v>332</v>
+      </c>
+      <c r="E332">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333" t="s">
         <v>446</v>
+      </c>
+      <c r="C333">
+        <v>331</v>
+      </c>
+      <c r="E333">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/MetroParis.xlsx
+++ b/MetroParis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e388d8049af18740/Bureau/Projet GitHub/PSI Fonctionnel/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f05a143ad77a79e0/Bureau/Projet PSI/Projet_PSI_DELAROCHE-Orane_DARMON-Clément_DEGARDIN-Thomas/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF546CC-0758-4B2D-B247-6800EF260704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{7EF546CC-0758-4B2D-B247-6800EF260704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0921561A-3A63-447F-B6A7-E728CE9174B8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Noeuds" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="772">
   <si>
     <t>Libelle Line</t>
   </si>
@@ -2354,6 +2354,9 @@
   </si>
   <si>
     <t>Temps de Changement</t>
+  </si>
+  <si>
+    <t>Montparnasse-Bienvenüe</t>
   </si>
 </sst>
 </file>
@@ -2420,10 +2423,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2725,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C333"/>
+    <sheetView topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10403,8 +10402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E322" sqref="E322"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10509,61 +10508,64 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -10585,23 +10587,24 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -10623,42 +10626,44 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>2</v>
       </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -10680,80 +10685,84 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>4</v>
       </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>2</v>
       </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>2</v>
       </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>2</v>
       </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
@@ -10894,21 +10903,22 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>25</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>27</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
@@ -10928,21 +10938,22 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>27</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>29</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>2</v>
       </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
@@ -10962,21 +10973,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>29</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>2</v>
       </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
@@ -10996,26 +11008,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <f>C32+1</f>
         <v>31</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <f t="shared" ref="D33:D43" si="2">D32+1</f>
         <v>33</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11034,45 +11047,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11091,26 +11106,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11129,7 +11145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11148,26 +11164,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11186,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11205,7 +11222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11222,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11236,22 +11253,24 @@
       <c r="E45" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D46">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
         <v>46</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11266,10 +11285,10 @@
       </c>
       <c r="E47">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11284,10 +11303,10 @@
       </c>
       <c r="E48">
         <f t="shared" ref="E48:E111" ca="1" si="4">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11302,118 +11321,122 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>48</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>50</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>51</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="2">
+        <v>50</v>
+      </c>
+      <c r="D52" s="2">
+        <v>52</v>
+      </c>
+      <c r="E52" s="2">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51">
-        <v>49</v>
-      </c>
-      <c r="D51">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="2">
         <v>51</v>
       </c>
-      <c r="E51">
+      <c r="D53" s="2">
+        <v>53</v>
+      </c>
+      <c r="E53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52">
-        <v>50</v>
-      </c>
-      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="2">
         <v>52</v>
       </c>
-      <c r="E52">
+      <c r="D54" s="2">
+        <v>54</v>
+      </c>
+      <c r="E54" s="2">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53">
-        <v>51</v>
-      </c>
-      <c r="D53">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55">
         <v>53</v>
       </c>
-      <c r="E53">
+      <c r="D55">
+        <v>55</v>
+      </c>
+      <c r="E55">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54">
-        <v>52</v>
-      </c>
-      <c r="D54">
-        <v>54</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <v>55</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11431,7 +11454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11446,482 +11469,496 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="2">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2">
+        <v>58</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="2">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58">
-        <v>56</v>
-      </c>
-      <c r="D58">
+      <c r="D59" s="2">
+        <v>59</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60">
         <v>58</v>
       </c>
-      <c r="E58">
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="2">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2">
+        <v>61</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>62</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>63</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="2">
+        <v>62</v>
+      </c>
+      <c r="D64" s="2">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="2">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2">
+        <v>65</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="1">
+        <v>64</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59">
-        <v>57</v>
-      </c>
-      <c r="D59">
-        <v>59</v>
-      </c>
-      <c r="E59">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67">
+        <v>67</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
+        <v>71</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>72</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="2">
+        <v>71</v>
+      </c>
+      <c r="D73" s="2">
+        <v>73</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>74</v>
+      </c>
+      <c r="E74">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60">
-        <v>58</v>
-      </c>
-      <c r="D60">
-        <v>60</v>
-      </c>
-      <c r="E60">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="2">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="2">
+        <v>74</v>
+      </c>
+      <c r="D76" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="2">
+        <v>75</v>
+      </c>
+      <c r="D77" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>78</v>
+      </c>
+      <c r="E78">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61">
-        <v>59</v>
-      </c>
-      <c r="D61">
-        <v>61</v>
-      </c>
-      <c r="E61">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2">
+        <v>79</v>
+      </c>
+      <c r="E79" s="2">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62">
-        <v>60</v>
-      </c>
-      <c r="D62">
-        <v>62</v>
-      </c>
-      <c r="E62">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="2">
+        <v>78</v>
+      </c>
+      <c r="D80" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63">
-        <v>61</v>
-      </c>
-      <c r="D63">
-        <v>63</v>
-      </c>
-      <c r="E63">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>81</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>82</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="2">
+        <v>81</v>
+      </c>
+      <c r="D83" s="2">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <v>84</v>
+      </c>
+      <c r="E84">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64">
-        <v>62</v>
-      </c>
-      <c r="D64">
-        <v>64</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65">
-        <v>63</v>
-      </c>
-      <c r="D65">
-        <v>65</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66">
-        <v>64</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67">
-        <v>67</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68">
-        <v>66</v>
-      </c>
-      <c r="D68">
-        <v>68</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>210</v>
-      </c>
-      <c r="C69">
-        <v>67</v>
-      </c>
-      <c r="D69">
-        <v>69</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70">
-        <v>68</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71">
-        <v>71</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72">
-        <v>70</v>
-      </c>
-      <c r="D72">
-        <v>72</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73">
-        <v>71</v>
-      </c>
-      <c r="D73">
-        <v>73</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74">
-        <v>72</v>
-      </c>
-      <c r="D74">
-        <v>74</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75">
-        <v>73</v>
-      </c>
-      <c r="D75">
-        <v>75</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76">
-        <v>74</v>
-      </c>
-      <c r="D76">
-        <v>76</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77">
-        <v>75</v>
-      </c>
-      <c r="D77">
-        <v>77</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78">
-        <v>76</v>
-      </c>
-      <c r="D78">
-        <v>78</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79">
-        <v>77</v>
-      </c>
-      <c r="D79">
-        <v>79</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80">
-        <v>78</v>
-      </c>
-      <c r="D80">
-        <v>80</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>237</v>
-      </c>
-      <c r="C81">
-        <v>79</v>
-      </c>
-      <c r="D81">
-        <v>81</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>240</v>
-      </c>
-      <c r="C82">
-        <v>80</v>
-      </c>
-      <c r="D82">
-        <v>82</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83">
-        <v>81</v>
-      </c>
-      <c r="D83">
-        <v>83</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84">
-        <v>82</v>
-      </c>
-      <c r="D84">
-        <v>84</v>
-      </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -11939,169 +11976,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>84</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>86</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <v>87</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <v>88</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <v>89</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C90" s="2">
+        <v>88</v>
+      </c>
+      <c r="D90" s="2">
+        <v>90</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>91</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="2">
+        <v>90</v>
+      </c>
+      <c r="D92" s="2">
+        <v>92</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="2">
+        <v>91</v>
+      </c>
+      <c r="D93" s="2">
+        <v>93</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>94</v>
+      </c>
+      <c r="E94">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>253</v>
-      </c>
-      <c r="C87">
-        <v>85</v>
-      </c>
-      <c r="D87">
-        <v>87</v>
-      </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>256</v>
-      </c>
-      <c r="C88">
-        <v>86</v>
-      </c>
-      <c r="D88">
-        <v>88</v>
-      </c>
-      <c r="E88">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>259</v>
-      </c>
-      <c r="C89">
-        <v>87</v>
-      </c>
-      <c r="D89">
-        <v>89</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>262</v>
-      </c>
-      <c r="C90">
-        <v>88</v>
-      </c>
-      <c r="D90">
-        <v>90</v>
-      </c>
-      <c r="E90">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>266</v>
-      </c>
-      <c r="C91">
-        <v>89</v>
-      </c>
-      <c r="D91">
-        <v>91</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92">
-        <v>90</v>
-      </c>
-      <c r="D92">
-        <v>92</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93">
-        <v>91</v>
-      </c>
-      <c r="D93">
-        <v>93</v>
-      </c>
-      <c r="E93">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94">
-        <v>92</v>
-      </c>
-      <c r="D94">
-        <v>94</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12119,36 +12160,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>94</v>
       </c>
-      <c r="E96">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D97">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1">
         <v>97</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12163,10 +12206,10 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12181,226 +12224,234 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="2">
+        <v>98</v>
+      </c>
+      <c r="D100" s="2">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="2">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100">
-        <v>98</v>
-      </c>
-      <c r="D100">
+      <c r="D101" s="2">
+        <v>101</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="2">
         <v>100</v>
       </c>
-      <c r="E100">
+      <c r="D102" s="2">
+        <v>102</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="2">
+        <v>101</v>
+      </c>
+      <c r="D103" s="2">
+        <v>103</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <v>104</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="2">
+        <v>103</v>
+      </c>
+      <c r="D105" s="2">
+        <v>105</v>
+      </c>
+      <c r="E105" s="2">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101">
-        <v>99</v>
-      </c>
-      <c r="D101">
-        <v>101</v>
-      </c>
-      <c r="E101">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" s="2">
+        <v>104</v>
+      </c>
+      <c r="D106" s="2">
+        <v>106</v>
+      </c>
+      <c r="E106" s="2">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102">
-        <v>102</v>
-      </c>
-      <c r="E102">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <v>107</v>
+      </c>
+      <c r="E107">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103">
-        <v>101</v>
-      </c>
-      <c r="D103">
-        <v>103</v>
-      </c>
-      <c r="E103">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108">
+        <v>108</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="2">
+        <v>107</v>
+      </c>
+      <c r="D109" s="2">
+        <v>109</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110">
+        <v>108</v>
+      </c>
+      <c r="D110">
+        <v>110</v>
+      </c>
+      <c r="E110">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>294</v>
-      </c>
-      <c r="C104">
-        <v>102</v>
-      </c>
-      <c r="D104">
-        <v>104</v>
-      </c>
-      <c r="E104">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C111" s="2">
+        <v>109</v>
+      </c>
+      <c r="D111" s="2">
+        <v>111</v>
+      </c>
+      <c r="E111" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>188</v>
-      </c>
-      <c r="C105">
-        <v>103</v>
-      </c>
-      <c r="D105">
-        <v>105</v>
-      </c>
-      <c r="E105">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>297</v>
-      </c>
-      <c r="C106">
-        <v>104</v>
-      </c>
-      <c r="D106">
-        <v>106</v>
-      </c>
-      <c r="E106">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>300</v>
-      </c>
-      <c r="C107">
-        <v>105</v>
-      </c>
-      <c r="D107">
-        <v>107</v>
-      </c>
-      <c r="E107">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>303</v>
-      </c>
-      <c r="C108">
-        <v>106</v>
-      </c>
-      <c r="D108">
-        <v>108</v>
-      </c>
-      <c r="E108">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>49</v>
-      </c>
-      <c r="C109">
-        <v>107</v>
-      </c>
-      <c r="D109">
-        <v>109</v>
-      </c>
-      <c r="E109">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>306</v>
-      </c>
-      <c r="C110">
-        <v>108</v>
-      </c>
-      <c r="D110">
-        <v>110</v>
-      </c>
-      <c r="E110">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>309</v>
-      </c>
-      <c r="C111">
-        <v>109</v>
-      </c>
-      <c r="D111">
-        <v>111</v>
-      </c>
-      <c r="E111">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12415,10 +12466,10 @@
       </c>
       <c r="E112">
         <f t="shared" ref="E112:E175" ca="1" si="5">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12433,237 +12484,245 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" s="1">
+        <v>112</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>320</v>
-      </c>
-      <c r="C114">
-        <v>112</v>
-      </c>
-      <c r="E114">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1">
+        <v>115</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <v>116</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117">
+        <v>115</v>
+      </c>
+      <c r="D117">
+        <v>117</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" s="2">
+        <v>116</v>
+      </c>
+      <c r="D118" s="2">
+        <v>118</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>332</v>
+      </c>
+      <c r="C119">
+        <v>117</v>
+      </c>
+      <c r="D119">
+        <v>119</v>
+      </c>
+      <c r="E119">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115">
-        <v>115</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>323</v>
-      </c>
-      <c r="C116">
-        <v>114</v>
-      </c>
-      <c r="D116">
-        <v>116</v>
-      </c>
-      <c r="E116">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <v>120</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <v>121</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C122" s="2">
+        <v>120</v>
+      </c>
+      <c r="D122" s="2">
+        <v>122</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>344</v>
+      </c>
+      <c r="C123">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <v>123</v>
+      </c>
+      <c r="E123">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>326</v>
-      </c>
-      <c r="C117">
-        <v>115</v>
-      </c>
-      <c r="D117">
-        <v>117</v>
-      </c>
-      <c r="E117">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>347</v>
+      </c>
+      <c r="C124">
+        <v>122</v>
+      </c>
+      <c r="D124">
+        <v>124</v>
+      </c>
+      <c r="E124">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>329</v>
-      </c>
-      <c r="C118">
-        <v>116</v>
-      </c>
-      <c r="D118">
-        <v>118</v>
-      </c>
-      <c r="E118">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" s="2">
+        <v>123</v>
+      </c>
+      <c r="D125" s="2">
+        <v>125</v>
+      </c>
+      <c r="E125" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>332</v>
-      </c>
-      <c r="C119">
-        <v>117</v>
-      </c>
-      <c r="D119">
-        <v>119</v>
-      </c>
-      <c r="E119">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>335</v>
-      </c>
-      <c r="C120">
-        <v>118</v>
-      </c>
-      <c r="D120">
-        <v>120</v>
-      </c>
-      <c r="E120">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>338</v>
-      </c>
-      <c r="C121">
-        <v>119</v>
-      </c>
-      <c r="D121">
-        <v>121</v>
-      </c>
-      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" s="2">
+        <v>124</v>
+      </c>
+      <c r="D126" s="2">
+        <v>126</v>
+      </c>
+      <c r="E126" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>341</v>
-      </c>
-      <c r="C122">
-        <v>120</v>
-      </c>
-      <c r="D122">
-        <v>122</v>
-      </c>
-      <c r="E122">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>344</v>
-      </c>
-      <c r="C123">
-        <v>121</v>
-      </c>
-      <c r="D123">
-        <v>123</v>
-      </c>
-      <c r="E123">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124">
-        <v>122</v>
-      </c>
-      <c r="D124">
-        <v>124</v>
-      </c>
-      <c r="E124">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>350</v>
-      </c>
-      <c r="C125">
-        <v>123</v>
-      </c>
-      <c r="D125">
-        <v>125</v>
-      </c>
-      <c r="E125">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>262</v>
-      </c>
-      <c r="C126">
-        <v>124</v>
-      </c>
-      <c r="D126">
-        <v>126</v>
-      </c>
-      <c r="E126">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12681,43 +12740,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>126</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>128</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>127</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>129</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -12732,10 +12793,10 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12750,10 +12811,10 @@
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -12768,28 +12829,29 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
         <v>131</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>133</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -12804,10 +12866,10 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -12822,10 +12884,10 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -12840,28 +12902,29 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>135</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>137</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -12876,93 +12939,97 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C139" s="2">
+        <v>137</v>
+      </c>
+      <c r="D139" s="2">
+        <v>139</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A139">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>383</v>
+      </c>
+      <c r="C140">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>380</v>
-      </c>
-      <c r="C139">
-        <v>137</v>
-      </c>
-      <c r="D139">
+      <c r="D140">
+        <v>140</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>386</v>
+      </c>
+      <c r="C141">
         <v>139</v>
       </c>
-      <c r="E139">
+      <c r="D141">
+        <v>141</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="1">
+        <v>140</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>383</v>
-      </c>
-      <c r="C140">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>140</v>
-      </c>
-      <c r="E140">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>386</v>
-      </c>
-      <c r="C141">
-        <v>139</v>
-      </c>
-      <c r="D141">
-        <v>141</v>
-      </c>
-      <c r="E141">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142">
-        <v>140</v>
-      </c>
-      <c r="E142">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A143">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D143">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1">
         <v>143</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12977,10 +13044,10 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12998,7 +13065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13013,46 +13080,48 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="2">
+        <v>145</v>
+      </c>
+      <c r="D147" s="2">
+        <v>147</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A147">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C148" s="2">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
-        <v>111</v>
-      </c>
-      <c r="C147">
-        <v>145</v>
-      </c>
-      <c r="D147">
-        <v>147</v>
-      </c>
-      <c r="E147">
+      <c r="D148" s="2">
+        <v>148</v>
+      </c>
+      <c r="E148" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>401</v>
-      </c>
-      <c r="C148">
-        <v>146</v>
-      </c>
-      <c r="D148">
-        <v>148</v>
-      </c>
-      <c r="E148">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13067,28 +13136,29 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>148</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>150</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13106,7 +13176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13121,10 +13191,10 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13142,205 +13212,211 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A154">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>152</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="2">
         <v>154</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" s="2">
+        <v>153</v>
+      </c>
+      <c r="D155" s="2">
+        <v>155</v>
+      </c>
+      <c r="E155" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A155">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C156" s="2">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
-        <v>165</v>
-      </c>
-      <c r="C155">
-        <v>153</v>
-      </c>
-      <c r="D155">
+      <c r="D156" s="2">
+        <v>156</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="2">
         <v>155</v>
       </c>
-      <c r="E155">
+      <c r="D157" s="2">
+        <v>157</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>422</v>
+      </c>
+      <c r="C158">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <v>158</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C159" s="2">
+        <v>157</v>
+      </c>
+      <c r="D159" s="2">
+        <v>159</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <v>160</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>428</v>
+      </c>
+      <c r="C161">
+        <v>159</v>
+      </c>
+      <c r="D161">
+        <v>161</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C162" s="2">
+        <v>160</v>
+      </c>
+      <c r="D162" s="2">
+        <v>162</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>434</v>
+      </c>
+      <c r="C163">
+        <v>161</v>
+      </c>
+      <c r="D163">
+        <v>163</v>
+      </c>
+      <c r="E163">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>419</v>
-      </c>
-      <c r="C156">
-        <v>154</v>
-      </c>
-      <c r="D156">
-        <v>156</v>
-      </c>
-      <c r="E156">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157">
-        <v>155</v>
-      </c>
-      <c r="D157">
-        <v>157</v>
-      </c>
-      <c r="E157">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>422</v>
-      </c>
-      <c r="C158">
-        <v>156</v>
-      </c>
-      <c r="D158">
-        <v>158</v>
-      </c>
-      <c r="E158">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>437</v>
+      </c>
+      <c r="C164">
+        <v>162</v>
+      </c>
+      <c r="D164">
+        <v>164</v>
+      </c>
+      <c r="E164">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>39</v>
-      </c>
-      <c r="C159">
-        <v>157</v>
-      </c>
-      <c r="D159">
-        <v>159</v>
-      </c>
-      <c r="E159">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>425</v>
-      </c>
-      <c r="C160">
-        <v>158</v>
-      </c>
-      <c r="D160">
-        <v>160</v>
-      </c>
-      <c r="E160">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>428</v>
-      </c>
-      <c r="C161">
-        <v>159</v>
-      </c>
-      <c r="D161">
-        <v>161</v>
-      </c>
-      <c r="E161">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>431</v>
-      </c>
-      <c r="C162">
-        <v>160</v>
-      </c>
-      <c r="D162">
-        <v>162</v>
-      </c>
-      <c r="E162">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>434</v>
-      </c>
-      <c r="C163">
-        <v>161</v>
-      </c>
-      <c r="D163">
-        <v>163</v>
-      </c>
-      <c r="E163">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>437</v>
-      </c>
-      <c r="C164">
-        <v>162</v>
-      </c>
-      <c r="D164">
-        <v>164</v>
-      </c>
-      <c r="E164">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -13358,25 +13434,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A166">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>164</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="2">
         <v>166</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -13391,10 +13468,10 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13412,7 +13489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -13427,10 +13504,10 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -13445,57 +13522,59 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>169</v>
       </c>
-      <c r="E171">
+      <c r="D171" s="1"/>
+      <c r="E171" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1">
+        <v>172</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>401</v>
+      </c>
+      <c r="C173">
+        <v>171</v>
+      </c>
+      <c r="D173">
+        <v>173</v>
+      </c>
+      <c r="E173">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>446</v>
-      </c>
-      <c r="D172">
-        <v>172</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>401</v>
-      </c>
-      <c r="C173">
-        <v>171</v>
-      </c>
-      <c r="D173">
-        <v>173</v>
-      </c>
-      <c r="E173">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -13513,7 +13592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -13528,10 +13607,10 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -13546,10 +13625,10 @@
       </c>
       <c r="E176">
         <f t="shared" ref="E176:E239" ca="1" si="6">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -13564,10 +13643,10 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -13585,7 +13664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -13600,10 +13679,10 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -13618,10 +13697,10 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -13636,21 +13715,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A182">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D182">
+      <c r="C182" s="1"/>
+      <c r="D182" s="1">
         <v>182</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -13665,10 +13745,10 @@
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -13686,7 +13766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -13701,10 +13781,10 @@
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -13722,25 +13802,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A187">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>185</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="2">
         <v>187</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -13755,10 +13836,10 @@
       </c>
       <c r="E188">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -13776,187 +13857,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A190">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>188</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="2">
         <v>190</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="2">
+        <v>189</v>
+      </c>
+      <c r="D191" s="2">
+        <v>191</v>
+      </c>
+      <c r="E191" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A191">
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C192" s="2">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>26</v>
-      </c>
-      <c r="C191">
-        <v>189</v>
-      </c>
-      <c r="D191">
+      <c r="D192" s="2">
+        <v>192</v>
+      </c>
+      <c r="E192" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C193" s="2">
         <v>191</v>
       </c>
-      <c r="E191">
+      <c r="D193" s="2">
+        <v>193</v>
+      </c>
+      <c r="E193" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C194" s="2">
+        <v>192</v>
+      </c>
+      <c r="D194" s="2">
+        <v>194</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C195" s="2">
+        <v>193</v>
+      </c>
+      <c r="D195" s="2">
+        <v>195</v>
+      </c>
+      <c r="E195" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C196" s="2">
+        <v>194</v>
+      </c>
+      <c r="D196" s="2">
+        <v>196</v>
+      </c>
+      <c r="E196" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C197" s="2">
+        <v>195</v>
+      </c>
+      <c r="D197" s="2">
+        <v>197</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C198" s="2">
+        <v>196</v>
+      </c>
+      <c r="D198" s="2">
+        <v>198</v>
+      </c>
+      <c r="E198" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>502</v>
-      </c>
-      <c r="C192">
-        <v>190</v>
-      </c>
-      <c r="D192">
-        <v>192</v>
-      </c>
-      <c r="E192">
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>514</v>
+      </c>
+      <c r="C199">
+        <v>197</v>
+      </c>
+      <c r="D199">
+        <v>199</v>
+      </c>
+      <c r="E199">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>165</v>
-      </c>
-      <c r="C193">
-        <v>191</v>
-      </c>
-      <c r="D193">
-        <v>193</v>
-      </c>
-      <c r="E193">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>505</v>
-      </c>
-      <c r="C194">
-        <v>192</v>
-      </c>
-      <c r="D194">
-        <v>194</v>
-      </c>
-      <c r="E194">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>508</v>
-      </c>
-      <c r="C195">
-        <v>193</v>
-      </c>
-      <c r="D195">
-        <v>195</v>
-      </c>
-      <c r="E195">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>511</v>
-      </c>
-      <c r="C196">
-        <v>194</v>
-      </c>
-      <c r="D196">
-        <v>196</v>
-      </c>
-      <c r="E196">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>234</v>
-      </c>
-      <c r="C197">
-        <v>195</v>
-      </c>
-      <c r="D197">
-        <v>197</v>
-      </c>
-      <c r="E197">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>188</v>
-      </c>
-      <c r="C198">
-        <v>196</v>
-      </c>
-      <c r="D198">
-        <v>198</v>
-      </c>
-      <c r="E198">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>514</v>
-      </c>
-      <c r="C199">
-        <v>197</v>
-      </c>
-      <c r="D199">
-        <v>199</v>
-      </c>
-      <c r="E199">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13974,7 +14064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13989,82 +14079,84 @@
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="2">
         <v>200</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="2">
         <v>202</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>523</v>
+      </c>
+      <c r="C203">
+        <v>201</v>
+      </c>
+      <c r="D203">
+        <v>203</v>
+      </c>
+      <c r="E203">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>526</v>
+      </c>
+      <c r="C204">
+        <v>202</v>
+      </c>
+      <c r="D204">
+        <v>204</v>
+      </c>
+      <c r="E204">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="s">
-        <v>523</v>
-      </c>
-      <c r="C203">
-        <v>201</v>
-      </c>
-      <c r="D203">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C205" s="2">
         <v>203</v>
       </c>
-      <c r="E203">
+      <c r="D205" s="2">
+        <v>205</v>
+      </c>
+      <c r="E205" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>526</v>
-      </c>
-      <c r="C204">
-        <v>202</v>
-      </c>
-      <c r="D204">
-        <v>204</v>
-      </c>
-      <c r="E204">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>56</v>
-      </c>
-      <c r="C205">
-        <v>203</v>
-      </c>
-      <c r="D205">
-        <v>205</v>
-      </c>
-      <c r="E205">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -14079,28 +14171,29 @@
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="2">
         <v>205</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="2">
         <v>207</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -14118,7 +14211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -14136,144 +14229,148 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A210">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>208</v>
       </c>
-      <c r="E210">
+      <c r="D210" s="1"/>
+      <c r="E210" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1">
+        <v>211</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>544</v>
+      </c>
+      <c r="C212">
+        <v>210</v>
+      </c>
+      <c r="D212">
+        <v>212</v>
+      </c>
+      <c r="E212">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C213" s="2">
+        <v>211</v>
+      </c>
+      <c r="D213" s="2">
+        <v>213</v>
+      </c>
+      <c r="E213" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C214" s="2">
+        <v>212</v>
+      </c>
+      <c r="D214" s="2">
+        <v>214</v>
+      </c>
+      <c r="E214" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>553</v>
+      </c>
+      <c r="C215">
+        <v>213</v>
+      </c>
+      <c r="D215">
+        <v>215</v>
+      </c>
+      <c r="E215">
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>541</v>
-      </c>
-      <c r="D211">
-        <v>211</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>544</v>
-      </c>
-      <c r="C212">
-        <v>210</v>
-      </c>
-      <c r="D212">
-        <v>212</v>
-      </c>
-      <c r="E212">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>556</v>
+      </c>
+      <c r="C216">
+        <v>214</v>
+      </c>
+      <c r="D216">
+        <v>216</v>
+      </c>
+      <c r="E216">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213" t="s">
-        <v>547</v>
-      </c>
-      <c r="C213">
-        <v>211</v>
-      </c>
-      <c r="D213">
-        <v>213</v>
-      </c>
-      <c r="E213">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214" t="s">
-        <v>550</v>
-      </c>
-      <c r="C214">
-        <v>212</v>
-      </c>
-      <c r="D214">
-        <v>214</v>
-      </c>
-      <c r="E214">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215" t="s">
-        <v>553</v>
-      </c>
-      <c r="C215">
-        <v>213</v>
-      </c>
-      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>559</v>
+      </c>
+      <c r="C217">
         <v>215</v>
       </c>
-      <c r="E215">
+      <c r="D217">
+        <v>217</v>
+      </c>
+      <c r="E217">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>556</v>
-      </c>
-      <c r="C216">
-        <v>214</v>
-      </c>
-      <c r="D216">
-        <v>216</v>
-      </c>
-      <c r="E216">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
-        <v>559</v>
-      </c>
-      <c r="C217">
-        <v>215</v>
-      </c>
-      <c r="D217">
-        <v>217</v>
-      </c>
-      <c r="E217">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -14291,25 +14388,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A219">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>217</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="2">
         <v>219</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -14324,10 +14422,10 @@
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -14342,334 +14440,344 @@
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" s="2">
+        <v>220</v>
+      </c>
+      <c r="D222" s="2">
+        <v>222</v>
+      </c>
+      <c r="E222" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A222">
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>571</v>
+      </c>
+      <c r="C223">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>20</v>
-      </c>
-      <c r="C222">
-        <v>220</v>
-      </c>
-      <c r="D222">
+      <c r="D223">
+        <v>223</v>
+      </c>
+      <c r="E223">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C224" s="2">
         <v>222</v>
       </c>
-      <c r="E222">
+      <c r="D224" s="2">
+        <v>224</v>
+      </c>
+      <c r="E224" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C225" s="2">
+        <v>223</v>
+      </c>
+      <c r="D225" s="2">
+        <v>225</v>
+      </c>
+      <c r="E225" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>571</v>
-      </c>
-      <c r="C223">
-        <v>221</v>
-      </c>
-      <c r="D223">
-        <v>223</v>
-      </c>
-      <c r="E223">
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C226" s="2">
+        <v>224</v>
+      </c>
+      <c r="D226" s="2">
+        <v>226</v>
+      </c>
+      <c r="E226" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C227" s="2">
+        <v>225</v>
+      </c>
+      <c r="D227" s="2">
+        <v>227</v>
+      </c>
+      <c r="E227" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
-        <v>574</v>
-      </c>
-      <c r="C224">
-        <v>222</v>
-      </c>
-      <c r="D224">
-        <v>224</v>
-      </c>
-      <c r="E224">
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C228" s="2">
+        <v>226</v>
+      </c>
+      <c r="D228" s="2">
+        <v>228</v>
+      </c>
+      <c r="E228" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>508</v>
+      </c>
+      <c r="C229">
+        <v>227</v>
+      </c>
+      <c r="D229">
+        <v>229</v>
+      </c>
+      <c r="E229">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>511</v>
+      </c>
+      <c r="C230">
+        <v>228</v>
+      </c>
+      <c r="D230">
+        <v>230</v>
+      </c>
+      <c r="E230">
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
-        <v>577</v>
-      </c>
-      <c r="C225">
-        <v>223</v>
-      </c>
-      <c r="D225">
-        <v>225</v>
-      </c>
-      <c r="E225">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" s="2">
+        <v>229</v>
+      </c>
+      <c r="D231" s="2">
+        <v>231</v>
+      </c>
+      <c r="E231" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C232" s="2">
+        <v>230</v>
+      </c>
+      <c r="D232" s="2">
+        <v>232</v>
+      </c>
+      <c r="E232" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C233" s="2">
+        <v>231</v>
+      </c>
+      <c r="D233" s="2">
+        <v>233</v>
+      </c>
+      <c r="E233" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>580</v>
+      </c>
+      <c r="C234">
+        <v>232</v>
+      </c>
+      <c r="D234">
+        <v>234</v>
+      </c>
+      <c r="E234">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>583</v>
+      </c>
+      <c r="C235">
+        <v>233</v>
+      </c>
+      <c r="D235">
+        <v>235</v>
+      </c>
+      <c r="E235">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>586</v>
+      </c>
+      <c r="C236">
+        <v>234</v>
+      </c>
+      <c r="D236">
+        <v>236</v>
+      </c>
+      <c r="E236">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>589</v>
+      </c>
+      <c r="C237">
+        <v>235</v>
+      </c>
+      <c r="D237">
+        <v>237</v>
+      </c>
+      <c r="E237">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C238" s="2">
+        <v>236</v>
+      </c>
+      <c r="D238" s="2">
+        <v>238</v>
+      </c>
+      <c r="E238" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>592</v>
+      </c>
+      <c r="C239">
+        <v>237</v>
+      </c>
+      <c r="D239">
+        <v>239</v>
+      </c>
+      <c r="E239">
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226" t="s">
-        <v>162</v>
-      </c>
-      <c r="C226">
-        <v>224</v>
-      </c>
-      <c r="D226">
-        <v>226</v>
-      </c>
-      <c r="E226">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227" t="s">
-        <v>416</v>
-      </c>
-      <c r="C227">
-        <v>225</v>
-      </c>
-      <c r="D227">
-        <v>227</v>
-      </c>
-      <c r="E227">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A228">
-        <v>227</v>
-      </c>
-      <c r="B228" t="s">
-        <v>505</v>
-      </c>
-      <c r="C228">
-        <v>226</v>
-      </c>
-      <c r="D228">
-        <v>228</v>
-      </c>
-      <c r="E228">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A229">
-        <v>228</v>
-      </c>
-      <c r="B229" t="s">
-        <v>508</v>
-      </c>
-      <c r="C229">
-        <v>227</v>
-      </c>
-      <c r="D229">
-        <v>229</v>
-      </c>
-      <c r="E229">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>511</v>
-      </c>
-      <c r="C230">
-        <v>228</v>
-      </c>
-      <c r="D230">
-        <v>230</v>
-      </c>
-      <c r="E230">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231" t="s">
-        <v>234</v>
-      </c>
-      <c r="C231">
-        <v>229</v>
-      </c>
-      <c r="D231">
-        <v>231</v>
-      </c>
-      <c r="E231">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" t="s">
-        <v>188</v>
-      </c>
-      <c r="C232">
-        <v>230</v>
-      </c>
-      <c r="D232">
-        <v>232</v>
-      </c>
-      <c r="E232">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>297</v>
-      </c>
-      <c r="C233">
-        <v>231</v>
-      </c>
-      <c r="D233">
-        <v>233</v>
-      </c>
-      <c r="E233">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>580</v>
-      </c>
-      <c r="C234">
-        <v>232</v>
-      </c>
-      <c r="D234">
-        <v>234</v>
-      </c>
-      <c r="E234">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>583</v>
-      </c>
-      <c r="C235">
-        <v>233</v>
-      </c>
-      <c r="D235">
-        <v>235</v>
-      </c>
-      <c r="E235">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>586</v>
-      </c>
-      <c r="C236">
-        <v>234</v>
-      </c>
-      <c r="D236">
-        <v>236</v>
-      </c>
-      <c r="E236">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>589</v>
-      </c>
-      <c r="C237">
-        <v>235</v>
-      </c>
-      <c r="D237">
-        <v>237</v>
-      </c>
-      <c r="E237">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>59</v>
-      </c>
-      <c r="C238">
-        <v>236</v>
-      </c>
-      <c r="D238">
-        <v>238</v>
-      </c>
-      <c r="E238">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>592</v>
-      </c>
-      <c r="C239">
-        <v>237</v>
-      </c>
-      <c r="D239">
-        <v>239</v>
-      </c>
-      <c r="E239">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14684,57 +14792,61 @@
       </c>
       <c r="E240">
         <f t="shared" ref="E240:E303" ca="1" si="7">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>239</v>
       </c>
-      <c r="E241">
+      <c r="D241" s="1"/>
+      <c r="E241" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1">
+        <v>242</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C243" s="2">
+        <v>241</v>
+      </c>
+      <c r="D243" s="2">
+        <v>243</v>
+      </c>
+      <c r="E243" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A242">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>309</v>
-      </c>
-      <c r="D242">
-        <v>242</v>
-      </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>431</v>
-      </c>
-      <c r="C243">
-        <v>241</v>
-      </c>
-      <c r="D243">
-        <v>243</v>
-      </c>
-      <c r="E243">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14749,10 +14861,10 @@
       </c>
       <c r="E244">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14770,7 +14882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14785,100 +14897,103 @@
       </c>
       <c r="E246">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" s="2">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="2">
         <v>245</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="2">
         <v>247</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>610</v>
+      </c>
+      <c r="C248">
+        <v>246</v>
+      </c>
+      <c r="D248">
+        <v>248</v>
+      </c>
+      <c r="E248">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A248">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C249" s="2">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
-        <v>610</v>
-      </c>
-      <c r="C248">
-        <v>246</v>
-      </c>
-      <c r="D248">
+      <c r="D249" s="2">
+        <v>249</v>
+      </c>
+      <c r="E249" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>616</v>
+      </c>
+      <c r="C250">
         <v>248</v>
       </c>
-      <c r="E248">
+      <c r="D250">
+        <v>250</v>
+      </c>
+      <c r="E250">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>613</v>
-      </c>
-      <c r="C249">
-        <v>247</v>
-      </c>
-      <c r="D249">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C251" s="2">
         <v>249</v>
       </c>
-      <c r="E249">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A250">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>616</v>
-      </c>
-      <c r="C250">
-        <v>248</v>
-      </c>
-      <c r="D250">
-        <v>250</v>
-      </c>
-      <c r="E250">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>619</v>
-      </c>
-      <c r="C251">
-        <v>249</v>
-      </c>
-      <c r="D251">
+      <c r="D251" s="2">
         <v>251</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14896,25 +15011,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A253">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" s="2">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="2">
         <v>251</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="2">
         <v>253</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14932,7 +15048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14950,7 +15066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14968,7 +15084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -14986,364 +15102,379 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A258">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" s="2">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="2">
         <v>256</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="2">
         <v>258</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C259" s="1">
+        <v>257</v>
+      </c>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1">
+        <v>260</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>640</v>
+      </c>
+      <c r="C261">
+        <v>259</v>
+      </c>
+      <c r="D261">
+        <v>261</v>
+      </c>
+      <c r="E261">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>643</v>
+      </c>
+      <c r="C262">
+        <v>260</v>
+      </c>
+      <c r="E262">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1">
+        <v>263</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C264" s="2">
+        <v>262</v>
+      </c>
+      <c r="D264" s="2">
+        <v>264</v>
+      </c>
+      <c r="E264" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>646</v>
+      </c>
+      <c r="C265">
+        <v>263</v>
+      </c>
+      <c r="D265">
+        <v>265</v>
+      </c>
+      <c r="E265">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C266" s="2">
+        <v>264</v>
+      </c>
+      <c r="D266" s="2">
+        <v>266</v>
+      </c>
+      <c r="E266" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A259">
-        <v>258</v>
-      </c>
-      <c r="B259" t="s">
-        <v>637</v>
-      </c>
-      <c r="C259">
-        <v>257</v>
-      </c>
-      <c r="E259">
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C267" s="2">
+        <v>265</v>
+      </c>
+      <c r="D267" s="2">
+        <v>267</v>
+      </c>
+      <c r="E267" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>649</v>
+      </c>
+      <c r="C268">
+        <v>266</v>
+      </c>
+      <c r="D268">
+        <v>268</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C269" s="2">
+        <v>267</v>
+      </c>
+      <c r="D269" s="2">
+        <v>269</v>
+      </c>
+      <c r="E269" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>652</v>
+      </c>
+      <c r="C270">
+        <v>268</v>
+      </c>
+      <c r="D270">
+        <v>270</v>
+      </c>
+      <c r="E270">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>655</v>
+      </c>
+      <c r="C271">
+        <v>269</v>
+      </c>
+      <c r="D271">
+        <v>271</v>
+      </c>
+      <c r="E271">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C272" s="2">
+        <v>270</v>
+      </c>
+      <c r="D272" s="2">
+        <v>272</v>
+      </c>
+      <c r="E272" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A260">
-        <v>259</v>
-      </c>
-      <c r="B260" t="s">
-        <v>547</v>
-      </c>
-      <c r="D260">
-        <v>260</v>
-      </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A261">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>640</v>
-      </c>
-      <c r="C261">
-        <v>259</v>
-      </c>
-      <c r="D261">
-        <v>261</v>
-      </c>
-      <c r="E261">
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>659</v>
+      </c>
+      <c r="C273">
+        <v>271</v>
+      </c>
+      <c r="D273">
+        <v>273</v>
+      </c>
+      <c r="E273">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C274" s="1">
+        <v>272</v>
+      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A262">
-        <v>261</v>
-      </c>
-      <c r="B262" t="s">
-        <v>643</v>
-      </c>
-      <c r="C262">
-        <v>260</v>
-      </c>
-      <c r="E262">
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1">
+        <v>275</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>665</v>
+      </c>
+      <c r="C276">
+        <v>274</v>
+      </c>
+      <c r="D276">
+        <v>276</v>
+      </c>
+      <c r="E276">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A263">
-        <v>262</v>
-      </c>
-      <c r="B263" t="s">
-        <v>39</v>
-      </c>
-      <c r="D263">
-        <v>263</v>
-      </c>
-      <c r="E263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A264">
-        <v>263</v>
-      </c>
-      <c r="B264" t="s">
-        <v>43</v>
-      </c>
-      <c r="C264">
-        <v>262</v>
-      </c>
-      <c r="D264">
-        <v>264</v>
-      </c>
-      <c r="E264">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C277" s="2">
+        <v>275</v>
+      </c>
+      <c r="D277" s="2">
+        <v>277</v>
+      </c>
+      <c r="E277" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A265">
-        <v>264</v>
-      </c>
-      <c r="B265" t="s">
-        <v>646</v>
-      </c>
-      <c r="C265">
-        <v>263</v>
-      </c>
-      <c r="D265">
-        <v>265</v>
-      </c>
-      <c r="E265">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A266">
-        <v>265</v>
-      </c>
-      <c r="B266" t="s">
-        <v>181</v>
-      </c>
-      <c r="C266">
-        <v>264</v>
-      </c>
-      <c r="D266">
-        <v>266</v>
-      </c>
-      <c r="E266">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A267">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>188</v>
-      </c>
-      <c r="C267">
-        <v>265</v>
-      </c>
-      <c r="D267">
-        <v>267</v>
-      </c>
-      <c r="E267">
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>668</v>
+      </c>
+      <c r="C278">
+        <v>276</v>
+      </c>
+      <c r="D278">
+        <v>278</v>
+      </c>
+      <c r="E278">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A268">
-        <v>267</v>
-      </c>
-      <c r="B268" t="s">
-        <v>649</v>
-      </c>
-      <c r="C268">
-        <v>266</v>
-      </c>
-      <c r="D268">
-        <v>268</v>
-      </c>
-      <c r="E268">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A269">
-        <v>268</v>
-      </c>
-      <c r="B269" t="s">
-        <v>121</v>
-      </c>
-      <c r="C269">
-        <v>267</v>
-      </c>
-      <c r="D269">
-        <v>269</v>
-      </c>
-      <c r="E269">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A270">
-        <v>269</v>
-      </c>
-      <c r="B270" t="s">
-        <v>652</v>
-      </c>
-      <c r="C270">
-        <v>268</v>
-      </c>
-      <c r="D270">
-        <v>270</v>
-      </c>
-      <c r="E270">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271" t="s">
-        <v>655</v>
-      </c>
-      <c r="C271">
-        <v>269</v>
-      </c>
-      <c r="D271">
-        <v>271</v>
-      </c>
-      <c r="E271">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A272">
-        <v>271</v>
-      </c>
-      <c r="B272" t="s">
-        <v>658</v>
-      </c>
-      <c r="C272">
-        <v>270</v>
-      </c>
-      <c r="D272">
-        <v>272</v>
-      </c>
-      <c r="E272">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A273">
-        <v>272</v>
-      </c>
-      <c r="B273" t="s">
-        <v>659</v>
-      </c>
-      <c r="C273">
-        <v>271</v>
-      </c>
-      <c r="D273">
-        <v>273</v>
-      </c>
-      <c r="E273">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A274">
-        <v>273</v>
-      </c>
-      <c r="B274" t="s">
-        <v>204</v>
-      </c>
-      <c r="C274">
-        <v>272</v>
-      </c>
-      <c r="E274">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A275">
-        <v>274</v>
-      </c>
-      <c r="B275" t="s">
-        <v>662</v>
-      </c>
-      <c r="D275">
-        <v>275</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A276">
-        <v>275</v>
-      </c>
-      <c r="B276" t="s">
-        <v>665</v>
-      </c>
-      <c r="C276">
-        <v>274</v>
-      </c>
-      <c r="D276">
-        <v>276</v>
-      </c>
-      <c r="E276">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A277">
-        <v>276</v>
-      </c>
-      <c r="B277" t="s">
-        <v>219</v>
-      </c>
-      <c r="C277">
-        <v>275</v>
-      </c>
-      <c r="D277">
-        <v>277</v>
-      </c>
-      <c r="E277">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A278">
-        <v>277</v>
-      </c>
-      <c r="B278" t="s">
-        <v>668</v>
-      </c>
-      <c r="C278">
-        <v>276</v>
-      </c>
-      <c r="D278">
-        <v>278</v>
-      </c>
-      <c r="E278">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -15361,7 +15492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -15379,25 +15510,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A281">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A281" s="2">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="2">
         <v>279</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="2">
         <v>281</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15412,10 +15544,10 @@
       </c>
       <c r="E282">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15430,10 +15562,10 @@
       </c>
       <c r="E283">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15448,100 +15580,103 @@
       </c>
       <c r="E284">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C285" s="2">
+        <v>283</v>
+      </c>
+      <c r="D285" s="2">
+        <v>285</v>
+      </c>
+      <c r="E285" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A285">
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C286" s="2">
         <v>284</v>
       </c>
-      <c r="B285" t="s">
-        <v>159</v>
-      </c>
-      <c r="C285">
-        <v>283</v>
-      </c>
-      <c r="D285">
+      <c r="D286" s="2">
+        <v>286</v>
+      </c>
+      <c r="E286" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287" s="2">
         <v>285</v>
       </c>
-      <c r="E285">
+      <c r="D287" s="2">
+        <v>287</v>
+      </c>
+      <c r="E287" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A286">
-        <v>285</v>
-      </c>
-      <c r="B286" t="s">
-        <v>502</v>
-      </c>
-      <c r="C286">
-        <v>284</v>
-      </c>
-      <c r="D286">
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>686</v>
+      </c>
+      <c r="C288">
         <v>286</v>
       </c>
-      <c r="E286">
+      <c r="D288">
+        <v>288</v>
+      </c>
+      <c r="E288">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A287">
-        <v>286</v>
-      </c>
-      <c r="B287" t="s">
-        <v>26</v>
-      </c>
-      <c r="C287">
-        <v>285</v>
-      </c>
-      <c r="D287">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>689</v>
+      </c>
+      <c r="C289">
         <v>287</v>
       </c>
-      <c r="E287">
+      <c r="D289">
+        <v>289</v>
+      </c>
+      <c r="E289">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A288">
-        <v>287</v>
-      </c>
-      <c r="B288" t="s">
-        <v>686</v>
-      </c>
-      <c r="C288">
-        <v>286</v>
-      </c>
-      <c r="D288">
-        <v>288</v>
-      </c>
-      <c r="E288">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A289">
-        <v>288</v>
-      </c>
-      <c r="B289" t="s">
-        <v>689</v>
-      </c>
-      <c r="C289">
-        <v>287</v>
-      </c>
-      <c r="D289">
-        <v>289</v>
-      </c>
-      <c r="E289">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15556,28 +15691,29 @@
       </c>
       <c r="E290">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A291" s="2">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="2">
         <v>289</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="2">
         <v>291</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15595,7 +15731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15613,25 +15749,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A294">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A294" s="2">
         <v>293</v>
       </c>
-      <c r="B294" t="s">
-        <v>262</v>
-      </c>
-      <c r="C294">
+      <c r="B294" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C294" s="2">
         <v>292</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="2">
         <v>294</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15649,61 +15786,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A296">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A296" s="2">
         <v>295</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="2">
         <v>294</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="2">
         <v>296</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>704</v>
+      </c>
+      <c r="C297">
+        <v>295</v>
+      </c>
+      <c r="D297">
+        <v>297</v>
+      </c>
+      <c r="E297">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>707</v>
+      </c>
+      <c r="C298">
+        <v>296</v>
+      </c>
+      <c r="D298">
+        <v>298</v>
+      </c>
+      <c r="E298">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A297">
-        <v>296</v>
-      </c>
-      <c r="B297" t="s">
-        <v>704</v>
-      </c>
-      <c r="C297">
-        <v>295</v>
-      </c>
-      <c r="D297">
-        <v>297</v>
-      </c>
-      <c r="E297">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A298">
-        <v>297</v>
-      </c>
-      <c r="B298" t="s">
-        <v>707</v>
-      </c>
-      <c r="C298">
-        <v>296</v>
-      </c>
-      <c r="D298">
-        <v>298</v>
-      </c>
-      <c r="E298">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15721,36 +15859,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A300">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A300" s="1">
         <v>299</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>298</v>
       </c>
-      <c r="E300">
+      <c r="D300" s="1"/>
+      <c r="E300" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D301">
+      <c r="C301" s="1"/>
+      <c r="D301" s="1">
         <v>301</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15765,10 +15905,10 @@
       </c>
       <c r="E302">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15786,7 +15926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15801,46 +15941,48 @@
       </c>
       <c r="E304">
         <f t="shared" ref="E304:E333" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A305" s="2">
         <v>304</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="2">
         <v>303</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="2">
         <v>305</v>
       </c>
-      <c r="E305">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A306">
-        <v>305</v>
-      </c>
-      <c r="B306" t="s">
-        <v>619</v>
-      </c>
-      <c r="C306">
-        <v>304</v>
-      </c>
-      <c r="D306">
-        <v>306</v>
-      </c>
-      <c r="E306">
+      <c r="E305" s="2">
         <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F305" s="2"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C306" s="2">
+        <v>304</v>
+      </c>
+      <c r="D306" s="2">
+        <v>306</v>
+      </c>
+      <c r="E306" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F306" s="2"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15858,7 +16000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15873,417 +16015,432 @@
       </c>
       <c r="E308">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A309" s="2">
         <v>308</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="2">
         <v>307</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="2">
         <v>309</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F309" s="2"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="2">
+        <v>308</v>
+      </c>
+      <c r="D310" s="2">
+        <v>310</v>
+      </c>
+      <c r="E310" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F310" s="2"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C311" s="2">
+        <v>309</v>
+      </c>
+      <c r="D311" s="2">
+        <v>311</v>
+      </c>
+      <c r="E311" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F311" s="2"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312" s="2">
+        <v>310</v>
+      </c>
+      <c r="D312" s="2">
+        <v>312</v>
+      </c>
+      <c r="E312" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>734</v>
+      </c>
+      <c r="C313">
+        <v>311</v>
+      </c>
+      <c r="D313">
+        <v>313</v>
+      </c>
+      <c r="E313">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A314" s="2">
+        <v>313</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C314" s="2">
+        <v>312</v>
+      </c>
+      <c r="D314" s="2">
+        <v>314</v>
+      </c>
+      <c r="E314" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>737</v>
+      </c>
+      <c r="C315">
+        <v>313</v>
+      </c>
+      <c r="D315">
+        <v>315</v>
+      </c>
+      <c r="E315">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>740</v>
+      </c>
+      <c r="C316">
+        <v>314</v>
+      </c>
+      <c r="D316">
+        <v>316</v>
+      </c>
+      <c r="E316">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>743</v>
+      </c>
+      <c r="C317">
+        <v>315</v>
+      </c>
+      <c r="D317">
+        <v>317</v>
+      </c>
+      <c r="E317">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A310">
-        <v>309</v>
-      </c>
-      <c r="B310" t="s">
-        <v>23</v>
-      </c>
-      <c r="C310">
-        <v>308</v>
-      </c>
-      <c r="D310">
-        <v>310</v>
-      </c>
-      <c r="E310">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>737</v>
+      </c>
+      <c r="C318">
+        <v>313</v>
+      </c>
+      <c r="D318">
+        <v>318</v>
+      </c>
+      <c r="E318">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>746</v>
+      </c>
+      <c r="C319">
+        <v>317</v>
+      </c>
+      <c r="D319">
+        <v>319</v>
+      </c>
+      <c r="E319">
         <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A311">
-        <v>310</v>
-      </c>
-      <c r="B311" t="s">
-        <v>574</v>
-      </c>
-      <c r="C311">
-        <v>309</v>
-      </c>
-      <c r="D311">
-        <v>311</v>
-      </c>
-      <c r="E311">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C320" s="1">
+        <v>318</v>
+      </c>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1">
+        <v>321</v>
+      </c>
+      <c r="E321" s="1">
+        <v>0</v>
+      </c>
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>752</v>
+      </c>
+      <c r="C322">
+        <v>320</v>
+      </c>
+      <c r="D322">
+        <v>322</v>
+      </c>
+      <c r="E322">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C323" s="2">
+        <v>321</v>
+      </c>
+      <c r="D323" s="2">
+        <v>323</v>
+      </c>
+      <c r="E323" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C324" s="2">
+        <v>322</v>
+      </c>
+      <c r="D324" s="2">
+        <v>324</v>
+      </c>
+      <c r="E324" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C325" s="2">
+        <v>323</v>
+      </c>
+      <c r="D325" s="2">
+        <v>325</v>
+      </c>
+      <c r="E325" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C326" s="2">
+        <v>324</v>
+      </c>
+      <c r="D326" s="2">
+        <v>326</v>
+      </c>
+      <c r="E326" s="2">
         <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A312">
-        <v>311</v>
-      </c>
-      <c r="B312" t="s">
-        <v>159</v>
-      </c>
-      <c r="C312">
-        <v>310</v>
-      </c>
-      <c r="D312">
-        <v>312</v>
-      </c>
-      <c r="E312">
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327" s="2">
+        <v>325</v>
+      </c>
+      <c r="D327" s="2">
+        <v>327</v>
+      </c>
+      <c r="E327" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C328" s="2">
+        <v>326</v>
+      </c>
+      <c r="D328" s="2">
+        <v>328</v>
+      </c>
+      <c r="E328" s="2">
         <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A313">
-        <v>312</v>
-      </c>
-      <c r="B313" t="s">
-        <v>734</v>
-      </c>
-      <c r="C313">
-        <v>311</v>
-      </c>
-      <c r="D313">
-        <v>313</v>
-      </c>
-      <c r="E313">
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>755</v>
+      </c>
+      <c r="C329">
+        <v>327</v>
+      </c>
+      <c r="D329">
+        <v>329</v>
+      </c>
+      <c r="E329">
         <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A314">
-        <v>313</v>
-      </c>
-      <c r="B314" t="s">
-        <v>90</v>
-      </c>
-      <c r="C314">
-        <v>312</v>
-      </c>
-      <c r="D314">
-        <v>314</v>
-      </c>
-      <c r="E314">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A315">
-        <v>314</v>
-      </c>
-      <c r="B315" t="s">
-        <v>737</v>
-      </c>
-      <c r="C315">
-        <v>313</v>
-      </c>
-      <c r="D315">
-        <v>315</v>
-      </c>
-      <c r="E315">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>758</v>
+      </c>
+      <c r="C330">
+        <v>328</v>
+      </c>
+      <c r="D330">
+        <v>330</v>
+      </c>
+      <c r="E330">
         <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A316">
-        <v>315</v>
-      </c>
-      <c r="B316" t="s">
-        <v>740</v>
-      </c>
-      <c r="C316">
-        <v>314</v>
-      </c>
-      <c r="D316">
-        <v>316</v>
-      </c>
-      <c r="E316">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A317">
-        <v>316</v>
-      </c>
-      <c r="B317" t="s">
-        <v>743</v>
-      </c>
-      <c r="C317">
-        <v>315</v>
-      </c>
-      <c r="D317">
-        <v>317</v>
-      </c>
-      <c r="E317">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A318">
-        <v>317</v>
-      </c>
-      <c r="B318" t="s">
-        <v>737</v>
-      </c>
-      <c r="C318">
-        <v>313</v>
-      </c>
-      <c r="D318">
-        <v>318</v>
-      </c>
-      <c r="E318">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A319">
-        <v>318</v>
-      </c>
-      <c r="B319" t="s">
-        <v>746</v>
-      </c>
-      <c r="C319">
-        <v>317</v>
-      </c>
-      <c r="D319">
-        <v>319</v>
-      </c>
-      <c r="E319">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A320">
-        <v>319</v>
-      </c>
-      <c r="B320" t="s">
-        <v>749</v>
-      </c>
-      <c r="C320">
-        <v>318</v>
-      </c>
-      <c r="E320">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A321">
-        <v>320</v>
-      </c>
-      <c r="B321" t="s">
-        <v>749</v>
-      </c>
-      <c r="D321">
-        <v>321</v>
-      </c>
-      <c r="E321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A322">
-        <v>321</v>
-      </c>
-      <c r="B322" t="s">
-        <v>752</v>
-      </c>
-      <c r="C322">
-        <v>320</v>
-      </c>
-      <c r="D322">
-        <v>322</v>
-      </c>
-      <c r="E322">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A323">
-        <v>322</v>
-      </c>
-      <c r="B323" t="s">
-        <v>159</v>
-      </c>
-      <c r="C323">
-        <v>321</v>
-      </c>
-      <c r="D323">
-        <v>323</v>
-      </c>
-      <c r="E323">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>761</v>
+      </c>
+      <c r="C331">
+        <v>329</v>
+      </c>
+      <c r="D331">
+        <v>331</v>
+      </c>
+      <c r="E331">
         <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A324">
-        <v>323</v>
-      </c>
-      <c r="B324" t="s">
-        <v>502</v>
-      </c>
-      <c r="C324">
-        <v>322</v>
-      </c>
-      <c r="D324">
-        <v>324</v>
-      </c>
-      <c r="E324">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A325">
-        <v>324</v>
-      </c>
-      <c r="B325" t="s">
-        <v>419</v>
-      </c>
-      <c r="C325">
-        <v>323</v>
-      </c>
-      <c r="D325">
-        <v>325</v>
-      </c>
-      <c r="E325">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A326">
-        <v>325</v>
-      </c>
-      <c r="B326" t="s">
-        <v>39</v>
-      </c>
-      <c r="C326">
-        <v>324</v>
-      </c>
-      <c r="D326">
-        <v>326</v>
-      </c>
-      <c r="E326">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A327">
-        <v>326</v>
-      </c>
-      <c r="B327" t="s">
-        <v>53</v>
-      </c>
-      <c r="C327">
-        <v>325</v>
-      </c>
-      <c r="D327">
-        <v>327</v>
-      </c>
-      <c r="E327">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A328">
-        <v>327</v>
-      </c>
-      <c r="B328" t="s">
-        <v>374</v>
-      </c>
-      <c r="C328">
-        <v>326</v>
-      </c>
-      <c r="D328">
-        <v>328</v>
-      </c>
-      <c r="E328">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A329">
-        <v>328</v>
-      </c>
-      <c r="B329" t="s">
-        <v>755</v>
-      </c>
-      <c r="C329">
-        <v>327</v>
-      </c>
-      <c r="D329">
-        <v>329</v>
-      </c>
-      <c r="E329">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A330">
-        <v>329</v>
-      </c>
-      <c r="B330" t="s">
-        <v>758</v>
-      </c>
-      <c r="C330">
-        <v>328</v>
-      </c>
-      <c r="D330">
-        <v>330</v>
-      </c>
-      <c r="E330">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A331">
-        <v>330</v>
-      </c>
-      <c r="B331" t="s">
-        <v>761</v>
-      </c>
-      <c r="C331">
-        <v>329</v>
-      </c>
-      <c r="D331">
-        <v>331</v>
-      </c>
-      <c r="E331">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16301,20 +16458,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A333">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>331</v>
       </c>
-      <c r="E333">
+      <c r="D333" s="1"/>
+      <c r="E333" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
+      <c r="F333" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}"/>

--- a/MetroParis.xlsx
+++ b/MetroParis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f05a143ad77a79e0/Bureau/Projet PSI/Projet_PSI_DELAROCHE-Orane_DARMON-Clément_DEGARDIN-Thomas/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{7EF546CC-0758-4B2D-B247-6800EF260704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0921561A-3A63-447F-B6A7-E728CE9174B8}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{7EF546CC-0758-4B2D-B247-6800EF260704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4885910-8E19-48FF-AF11-579F62C416E8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
@@ -2423,6 +2423,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10402,7 +10406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
       <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
@@ -10525,7 +10529,10 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
@@ -10545,7 +10552,10 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F8" ca="1" si="2">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
@@ -10565,7 +10575,10 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -10604,7 +10617,10 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -10643,7 +10659,10 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
@@ -10663,7 +10682,10 @@
       <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -10702,7 +10724,10 @@
       <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
@@ -10722,7 +10747,10 @@
       <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
@@ -10742,7 +10770,10 @@
       <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
@@ -10762,7 +10793,10 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
@@ -10918,7 +10952,10 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
@@ -10953,7 +10990,10 @@
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
@@ -10988,7 +11028,10 @@
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
@@ -11020,13 +11063,16 @@
         <v>31</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:D43" si="2">D32+1</f>
+        <f t="shared" ref="D33:D43" si="3">D32+1</f>
         <v>33</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
@@ -11036,11 +11082,11 @@
         <v>108</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C43" si="3">C33+1</f>
+        <f t="shared" ref="C34:C43" si="4">C33+1</f>
         <v>32</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="E34">
@@ -11055,17 +11101,20 @@
         <v>111</v>
       </c>
       <c r="C35" s="2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="2">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
@@ -11075,17 +11124,20 @@
         <v>115</v>
       </c>
       <c r="C36" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="2">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
@@ -11095,11 +11147,11 @@
         <v>118</v>
       </c>
       <c r="C37">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="E37">
@@ -11114,17 +11166,20 @@
         <v>121</v>
       </c>
       <c r="C38" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="2">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
@@ -11134,11 +11189,11 @@
         <v>124</v>
       </c>
       <c r="C39">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="E39">
@@ -11153,11 +11208,11 @@
         <v>128</v>
       </c>
       <c r="C40">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E40">
@@ -11172,17 +11227,20 @@
         <v>131</v>
       </c>
       <c r="C41" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="2">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
@@ -11192,11 +11250,11 @@
         <v>134</v>
       </c>
       <c r="C42">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="E42">
@@ -11211,11 +11269,11 @@
         <v>137</v>
       </c>
       <c r="C43">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="E43">
@@ -11253,7 +11311,10 @@
       <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -11285,7 +11346,7 @@
       </c>
       <c r="E47">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -11302,8 +11363,8 @@
         <v>48</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E111" ca="1" si="4">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ref="E48:E111" ca="1" si="5">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -11320,8 +11381,8 @@
         <v>49</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -11338,10 +11399,13 @@
         <v>50</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F50" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
@@ -11357,8 +11421,8 @@
         <v>51</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -11375,10 +11439,13 @@
         <v>52</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F52" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
@@ -11394,10 +11461,13 @@
         <v>53</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F53" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F53" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
@@ -11413,10 +11483,13 @@
         <v>54</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F54" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
@@ -11432,7 +11505,7 @@
         <v>55</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -11450,7 +11523,7 @@
         <v>56</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -11468,8 +11541,8 @@
         <v>57</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -11486,10 +11559,13 @@
         <v>58</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
@@ -11505,10 +11581,13 @@
         <v>59</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F59" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F59" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
@@ -11524,7 +11603,7 @@
         <v>60</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -11542,10 +11621,13 @@
         <v>61</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F61" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F61" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
@@ -11561,8 +11643,8 @@
         <v>62</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -11579,8 +11661,8 @@
         <v>63</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -11597,10 +11679,13 @@
         <v>64</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F64" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F64" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
@@ -11616,10 +11701,13 @@
         <v>65</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F65" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -11633,8 +11721,8 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -11665,8 +11753,8 @@
         <v>68</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -11683,7 +11771,7 @@
         <v>69</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -11698,7 +11786,7 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -11731,8 +11819,8 @@
         <v>72</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -11749,10 +11837,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F73" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>2</v>
       </c>
-      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
@@ -11768,7 +11859,7 @@
         <v>74</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -11786,10 +11877,13 @@
         <v>75</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F75" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F75" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
@@ -11805,10 +11899,13 @@
         <v>76</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F76" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F76" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
@@ -11824,10 +11921,13 @@
         <v>77</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F77" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F77" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
@@ -11843,8 +11943,8 @@
         <v>78</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -11861,10 +11961,13 @@
         <v>79</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F79" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F79" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
@@ -11880,10 +11983,13 @@
         <v>80</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
@@ -11899,8 +12005,8 @@
         <v>81</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -11917,7 +12023,7 @@
         <v>82</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -11935,10 +12041,13 @@
         <v>83</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F83" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
@@ -11954,7 +12063,7 @@
         <v>84</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -11972,8 +12081,8 @@
         <v>85</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -11990,10 +12099,13 @@
         <v>86</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F86" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F86" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
@@ -12009,8 +12121,8 @@
         <v>87</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -12027,8 +12139,8 @@
         <v>88</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -12045,7 +12157,7 @@
         <v>89</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -12063,10 +12175,13 @@
         <v>90</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
@@ -12082,8 +12197,8 @@
         <v>91</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -12100,10 +12215,13 @@
         <v>92</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
@@ -12119,10 +12237,13 @@
         <v>93</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F93" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
@@ -12138,8 +12259,8 @@
         <v>94</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -12156,8 +12277,8 @@
         <v>95</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -12172,8 +12293,8 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -12205,8 +12326,8 @@
         <v>98</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -12223,8 +12344,8 @@
         <v>99</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -12241,10 +12362,13 @@
         <v>100</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
@@ -12260,10 +12384,13 @@
         <v>101</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F101" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F101" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
@@ -12279,10 +12406,13 @@
         <v>102</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F102" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
@@ -12298,10 +12428,13 @@
         <v>103</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F103" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F103" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
@@ -12317,8 +12450,8 @@
         <v>104</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -12335,10 +12468,13 @@
         <v>105</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F105" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F105" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
@@ -12354,10 +12490,13 @@
         <v>106</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F106" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F106" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
@@ -12373,8 +12512,8 @@
         <v>107</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
@@ -12391,8 +12530,8 @@
         <v>108</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
@@ -12409,10 +12548,13 @@
         <v>109</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F109" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F109" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
@@ -12428,8 +12570,8 @@
         <v>110</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
@@ -12446,10 +12588,13 @@
         <v>111</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
@@ -12465,7 +12610,7 @@
         <v>112</v>
       </c>
       <c r="E112">
-        <f t="shared" ref="E112:E175" ca="1" si="5">RANDBETWEEN(1,4)</f>
+        <f t="shared" ref="E112:E175" ca="1" si="6">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -12483,8 +12628,8 @@
         <v>113</v>
       </c>
       <c r="E113">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
@@ -12499,10 +12644,13 @@
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
@@ -12518,7 +12666,10 @@
       <c r="E115" s="1">
         <v>0</v>
       </c>
-      <c r="F115" s="2"/>
+      <c r="F115" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
@@ -12534,7 +12685,7 @@
         <v>116</v>
       </c>
       <c r="E116">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -12552,7 +12703,7 @@
         <v>117</v>
       </c>
       <c r="E117">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -12570,10 +12721,13 @@
         <v>118</v>
       </c>
       <c r="E118" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F118" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F118" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
@@ -12589,8 +12743,8 @@
         <v>119</v>
       </c>
       <c r="E119">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
@@ -12607,8 +12761,8 @@
         <v>120</v>
       </c>
       <c r="E120">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -12625,8 +12779,8 @@
         <v>121</v>
       </c>
       <c r="E121">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
@@ -12643,10 +12797,13 @@
         <v>122</v>
       </c>
       <c r="E122" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F122" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>2</v>
       </c>
-      <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
@@ -12662,8 +12819,8 @@
         <v>123</v>
       </c>
       <c r="E123">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
@@ -12680,8 +12837,8 @@
         <v>124</v>
       </c>
       <c r="E124">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
@@ -12698,10 +12855,13 @@
         <v>125</v>
       </c>
       <c r="E125" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F125" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
@@ -12717,10 +12877,13 @@
         <v>126</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F126" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F126" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
@@ -12736,8 +12899,8 @@
         <v>127</v>
       </c>
       <c r="E127">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
@@ -12754,10 +12917,13 @@
         <v>128</v>
       </c>
       <c r="E128" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
@@ -12773,10 +12939,13 @@
         <v>129</v>
       </c>
       <c r="E129" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F129" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F129" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
@@ -12792,8 +12961,8 @@
         <v>130</v>
       </c>
       <c r="E130">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
@@ -12810,7 +12979,7 @@
         <v>131</v>
       </c>
       <c r="E131">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12828,8 +12997,8 @@
         <v>132</v>
       </c>
       <c r="E132">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -12846,10 +13015,13 @@
         <v>133</v>
       </c>
       <c r="E133" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-      <c r="F133" s="2"/>
+      <c r="F133" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
@@ -12865,8 +13037,8 @@
         <v>134</v>
       </c>
       <c r="E134">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -12883,8 +13055,8 @@
         <v>135</v>
       </c>
       <c r="E135">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
@@ -12901,8 +13073,8 @@
         <v>136</v>
       </c>
       <c r="E136">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
@@ -12919,10 +13091,13 @@
         <v>137</v>
       </c>
       <c r="E137" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F137" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
@@ -12938,7 +13113,7 @@
         <v>138</v>
       </c>
       <c r="E138">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -12956,10 +13131,13 @@
         <v>139</v>
       </c>
       <c r="E139" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140">
@@ -12975,8 +13153,8 @@
         <v>140</v>
       </c>
       <c r="E140">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -12993,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="E141">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -13009,10 +13187,13 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-      <c r="F142" s="2"/>
+      <c r="F142" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
@@ -13043,8 +13224,8 @@
         <v>144</v>
       </c>
       <c r="E144">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -13061,8 +13242,8 @@
         <v>145</v>
       </c>
       <c r="E145">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -13079,7 +13260,7 @@
         <v>146</v>
       </c>
       <c r="E146">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -13097,10 +13278,13 @@
         <v>147</v>
       </c>
       <c r="E147" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F147" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F147" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
@@ -13116,10 +13300,13 @@
         <v>148</v>
       </c>
       <c r="E148" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F148" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F148" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149">
@@ -13135,8 +13322,8 @@
         <v>149</v>
       </c>
       <c r="E149">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
@@ -13153,10 +13340,13 @@
         <v>150</v>
       </c>
       <c r="E150" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="F150" s="2"/>
+      <c r="F150" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151">
@@ -13172,7 +13362,7 @@
         <v>151</v>
       </c>
       <c r="E151">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -13190,7 +13380,7 @@
         <v>152</v>
       </c>
       <c r="E152">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -13208,8 +13398,8 @@
         <v>153</v>
       </c>
       <c r="E153">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
@@ -13226,10 +13416,13 @@
         <v>154</v>
       </c>
       <c r="E154" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F154" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F154" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
@@ -13245,10 +13438,13 @@
         <v>155</v>
       </c>
       <c r="E155" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F155" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F155" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
@@ -13264,10 +13460,13 @@
         <v>156</v>
       </c>
       <c r="E156" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F156" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F156" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
@@ -13283,10 +13482,13 @@
         <v>157</v>
       </c>
       <c r="E157" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F157" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>1</v>
       </c>
-      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158">
@@ -13302,8 +13504,8 @@
         <v>158</v>
       </c>
       <c r="E158">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
@@ -13320,10 +13522,13 @@
         <v>159</v>
       </c>
       <c r="E159" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F159" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F159" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160">
@@ -13339,8 +13544,8 @@
         <v>160</v>
       </c>
       <c r="E160">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
@@ -13357,7 +13562,7 @@
         <v>161</v>
       </c>
       <c r="E161">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -13375,10 +13580,13 @@
         <v>162</v>
       </c>
       <c r="E162" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="F162" s="2"/>
+      <c r="F162" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163">
@@ -13394,8 +13602,8 @@
         <v>163</v>
       </c>
       <c r="E163">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -13412,7 +13620,7 @@
         <v>164</v>
       </c>
       <c r="E164">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -13430,8 +13638,8 @@
         <v>165</v>
       </c>
       <c r="E165">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
@@ -13448,10 +13656,13 @@
         <v>166</v>
       </c>
       <c r="E166" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F166" s="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F166" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167">
@@ -13467,8 +13678,8 @@
         <v>167</v>
       </c>
       <c r="E167">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
@@ -13485,8 +13696,8 @@
         <v>168</v>
       </c>
       <c r="E168">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
@@ -13503,8 +13714,8 @@
         <v>169</v>
       </c>
       <c r="E169">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -13521,8 +13732,8 @@
         <v>170</v>
       </c>
       <c r="E170">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
@@ -13537,8 +13748,8 @@
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
@@ -13570,8 +13781,8 @@
         <v>173</v>
       </c>
       <c r="E173">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
@@ -13588,8 +13799,8 @@
         <v>174</v>
       </c>
       <c r="E174">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -13606,8 +13817,8 @@
         <v>175</v>
       </c>
       <c r="E175">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -13624,8 +13835,8 @@
         <v>176</v>
       </c>
       <c r="E176">
-        <f t="shared" ref="E176:E239" ca="1" si="6">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ref="E176:E239" ca="1" si="7">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -13642,8 +13853,8 @@
         <v>177</v>
       </c>
       <c r="E177">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -13660,7 +13871,7 @@
         <v>178</v>
       </c>
       <c r="E178">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -13678,8 +13889,8 @@
         <v>179</v>
       </c>
       <c r="E179">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
@@ -13696,7 +13907,7 @@
         <v>180</v>
       </c>
       <c r="E180">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -13711,8 +13922,8 @@
         <v>179</v>
       </c>
       <c r="E181">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -13744,8 +13955,8 @@
         <v>183</v>
       </c>
       <c r="E183">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -13762,7 +13973,7 @@
         <v>184</v>
       </c>
       <c r="E184">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -13780,8 +13991,8 @@
         <v>185</v>
       </c>
       <c r="E185">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -13798,7 +14009,7 @@
         <v>186</v>
       </c>
       <c r="E186">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -13816,10 +14027,13 @@
         <v>187</v>
       </c>
       <c r="E187" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F187" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F187" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188">
@@ -13835,8 +14049,8 @@
         <v>188</v>
       </c>
       <c r="E188">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -13853,7 +14067,7 @@
         <v>189</v>
       </c>
       <c r="E189">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -13871,10 +14085,13 @@
         <v>190</v>
       </c>
       <c r="E190" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-      <c r="F190" s="2"/>
+      <c r="F190" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="2">
@@ -13890,10 +14107,13 @@
         <v>191</v>
       </c>
       <c r="E191" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F191" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>3</v>
       </c>
-      <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="2">
@@ -13909,10 +14129,13 @@
         <v>192</v>
       </c>
       <c r="E192" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F192" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F192" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="2">
@@ -13928,10 +14151,13 @@
         <v>193</v>
       </c>
       <c r="E193" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F193" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F193" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="2">
@@ -13947,10 +14173,13 @@
         <v>194</v>
       </c>
       <c r="E194" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F194" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F194" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="2">
@@ -13966,10 +14195,13 @@
         <v>195</v>
       </c>
       <c r="E195" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F195" s="2"/>
+      <c r="F195" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="2">
@@ -13985,10 +14217,13 @@
         <v>196</v>
       </c>
       <c r="E196" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-      <c r="F196" s="2"/>
+      <c r="F196" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="2">
@@ -14004,10 +14239,13 @@
         <v>197</v>
       </c>
       <c r="E197" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F197" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F197" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="2">
@@ -14023,10 +14261,13 @@
         <v>198</v>
       </c>
       <c r="E198" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F198" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F198" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199">
@@ -14042,8 +14283,8 @@
         <v>199</v>
       </c>
       <c r="E199">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -14060,8 +14301,8 @@
         <v>200</v>
       </c>
       <c r="E200">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -14078,7 +14319,7 @@
         <v>201</v>
       </c>
       <c r="E201">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -14096,10 +14337,13 @@
         <v>202</v>
       </c>
       <c r="E202" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F202" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F202" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203">
@@ -14115,7 +14359,7 @@
         <v>203</v>
       </c>
       <c r="E203">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -14133,8 +14377,8 @@
         <v>204</v>
       </c>
       <c r="E204">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
@@ -14151,10 +14395,13 @@
         <v>205</v>
       </c>
       <c r="E205" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-      <c r="F205" s="2"/>
+      <c r="F205" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
@@ -14170,7 +14417,7 @@
         <v>206</v>
       </c>
       <c r="E206">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -14188,10 +14435,13 @@
         <v>207</v>
       </c>
       <c r="E207" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-      <c r="F207" s="2"/>
+      <c r="F207" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
@@ -14207,7 +14457,7 @@
         <v>208</v>
       </c>
       <c r="E208">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -14225,7 +14475,7 @@
         <v>209</v>
       </c>
       <c r="E209">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -14241,8 +14491,8 @@
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -14274,8 +14524,8 @@
         <v>212</v>
       </c>
       <c r="E212">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -14292,10 +14542,13 @@
         <v>213</v>
       </c>
       <c r="E213" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F213" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F213" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="2">
@@ -14311,10 +14564,13 @@
         <v>214</v>
       </c>
       <c r="E214" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="F214" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F214" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215">
@@ -14330,8 +14586,8 @@
         <v>215</v>
       </c>
       <c r="E215">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
@@ -14348,8 +14604,8 @@
         <v>216</v>
       </c>
       <c r="E216">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
@@ -14366,7 +14622,7 @@
         <v>217</v>
       </c>
       <c r="E217">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -14384,8 +14640,8 @@
         <v>218</v>
       </c>
       <c r="E218">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -14402,10 +14658,13 @@
         <v>219</v>
       </c>
       <c r="E219" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F219" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F219" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220">
@@ -14421,8 +14680,8 @@
         <v>220</v>
       </c>
       <c r="E220">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
@@ -14439,7 +14698,7 @@
         <v>221</v>
       </c>
       <c r="E221">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -14457,10 +14716,13 @@
         <v>222</v>
       </c>
       <c r="E222" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F222" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F222" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223">
@@ -14476,8 +14738,8 @@
         <v>223</v>
       </c>
       <c r="E223">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
@@ -14494,10 +14756,13 @@
         <v>224</v>
       </c>
       <c r="E224" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F224" s="2"/>
+      <c r="F224" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="2">
@@ -14513,10 +14778,13 @@
         <v>225</v>
       </c>
       <c r="E225" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F225" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>4</v>
       </c>
-      <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="2">
@@ -14532,10 +14800,13 @@
         <v>226</v>
       </c>
       <c r="E226" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="F226" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F226" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" s="2">
@@ -14551,10 +14822,13 @@
         <v>227</v>
       </c>
       <c r="E227" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F227" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F227" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="2">
@@ -14570,10 +14844,13 @@
         <v>228</v>
       </c>
       <c r="E228" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F228" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F228" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229">
@@ -14589,8 +14866,8 @@
         <v>229</v>
       </c>
       <c r="E229">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
@@ -14607,8 +14884,8 @@
         <v>230</v>
       </c>
       <c r="E230">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
@@ -14625,10 +14902,13 @@
         <v>231</v>
       </c>
       <c r="E231" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-      <c r="F231" s="2"/>
+      <c r="F231" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="2">
@@ -14644,10 +14924,13 @@
         <v>232</v>
       </c>
       <c r="E232" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-      <c r="F232" s="2"/>
+      <c r="F232" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" s="2">
@@ -14663,10 +14946,13 @@
         <v>233</v>
       </c>
       <c r="E233" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F233" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>4</v>
       </c>
-      <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234">
@@ -14682,7 +14968,7 @@
         <v>234</v>
       </c>
       <c r="E234">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -14700,8 +14986,8 @@
         <v>235</v>
       </c>
       <c r="E235">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -14718,8 +15004,8 @@
         <v>236</v>
       </c>
       <c r="E236">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -14736,8 +15022,8 @@
         <v>237</v>
       </c>
       <c r="E237">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
@@ -14754,10 +15040,13 @@
         <v>238</v>
       </c>
       <c r="E238" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F238" s="2"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F238" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239">
@@ -14773,8 +15062,8 @@
         <v>239</v>
       </c>
       <c r="E239">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -14791,8 +15080,8 @@
         <v>240</v>
       </c>
       <c r="E240">
-        <f t="shared" ref="E240:E303" ca="1" si="7">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ref="E240:E303" ca="1" si="8">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
@@ -14807,8 +15096,8 @@
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
@@ -14825,7 +15114,10 @@
       <c r="E242" s="1">
         <v>0</v>
       </c>
-      <c r="F242" s="2"/>
+      <c r="F242" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="2">
@@ -14841,10 +15133,13 @@
         <v>243</v>
       </c>
       <c r="E243" s="2">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="F243" s="2"/>
+      <c r="F243" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244">
@@ -14860,8 +15155,8 @@
         <v>244</v>
       </c>
       <c r="E244">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
@@ -14878,8 +15173,8 @@
         <v>245</v>
       </c>
       <c r="E245">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
@@ -14896,7 +15191,7 @@
         <v>246</v>
       </c>
       <c r="E246">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -14914,10 +15209,13 @@
         <v>247</v>
       </c>
       <c r="E247" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F247" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F247" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248">
@@ -14933,7 +15231,7 @@
         <v>248</v>
       </c>
       <c r="E248">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -14951,10 +15249,13 @@
         <v>249</v>
       </c>
       <c r="E249" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F249" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F249" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250">
@@ -14970,7 +15271,7 @@
         <v>250</v>
       </c>
       <c r="E250">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -14988,10 +15289,13 @@
         <v>251</v>
       </c>
       <c r="E251" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F251" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F251" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252">
@@ -15007,8 +15311,8 @@
         <v>252</v>
       </c>
       <c r="E252">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
@@ -15025,10 +15329,13 @@
         <v>253</v>
       </c>
       <c r="E253" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F253" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F253" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254">
@@ -15044,7 +15351,7 @@
         <v>254</v>
       </c>
       <c r="E254">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -15062,8 +15369,8 @@
         <v>255</v>
       </c>
       <c r="E255">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
@@ -15080,8 +15387,8 @@
         <v>256</v>
       </c>
       <c r="E256">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.45">
@@ -15098,7 +15405,7 @@
         <v>257</v>
       </c>
       <c r="E257">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -15116,10 +15423,13 @@
         <v>258</v>
       </c>
       <c r="E258" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F258" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F258" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
@@ -15133,8 +15443,8 @@
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.45">
@@ -15151,7 +15461,10 @@
       <c r="E260" s="1">
         <v>0</v>
       </c>
-      <c r="F260" s="2"/>
+      <c r="F260" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261">
@@ -15167,8 +15480,8 @@
         <v>261</v>
       </c>
       <c r="E261">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
@@ -15182,8 +15495,8 @@
         <v>260</v>
       </c>
       <c r="E262">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
@@ -15200,7 +15513,10 @@
       <c r="E263" s="1">
         <v>0</v>
       </c>
-      <c r="F263" s="2"/>
+      <c r="F263" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264" s="2">
@@ -15216,10 +15532,13 @@
         <v>264</v>
       </c>
       <c r="E264" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F264" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F264" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265">
@@ -15235,8 +15554,8 @@
         <v>265</v>
       </c>
       <c r="E265">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.45">
@@ -15253,10 +15572,13 @@
         <v>266</v>
       </c>
       <c r="E266" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F266" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F266" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267" s="2">
@@ -15272,10 +15594,13 @@
         <v>267</v>
       </c>
       <c r="E267" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F267" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F267" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268">
@@ -15291,8 +15616,8 @@
         <v>268</v>
       </c>
       <c r="E268">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.45">
@@ -15309,10 +15634,13 @@
         <v>269</v>
       </c>
       <c r="E269" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F269" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F269" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270">
@@ -15328,7 +15656,7 @@
         <v>270</v>
       </c>
       <c r="E270">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -15346,8 +15674,8 @@
         <v>271</v>
       </c>
       <c r="E271">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
@@ -15364,10 +15692,13 @@
         <v>272</v>
       </c>
       <c r="E272" s="2">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="F272" s="2"/>
+      <c r="F272" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273">
@@ -15383,8 +15714,8 @@
         <v>273</v>
       </c>
       <c r="E273">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
@@ -15399,10 +15730,13 @@
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F274" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F274" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
@@ -15433,8 +15767,8 @@
         <v>276</v>
       </c>
       <c r="E276">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.45">
@@ -15451,10 +15785,13 @@
         <v>277</v>
       </c>
       <c r="E277" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F277" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F277" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278">
@@ -15470,8 +15807,8 @@
         <v>278</v>
       </c>
       <c r="E278">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.45">
@@ -15488,8 +15825,8 @@
         <v>279</v>
       </c>
       <c r="E279">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.45">
@@ -15506,8 +15843,8 @@
         <v>280</v>
       </c>
       <c r="E280">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.45">
@@ -15524,10 +15861,13 @@
         <v>281</v>
       </c>
       <c r="E281" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F281" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F281" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282">
@@ -15543,8 +15883,8 @@
         <v>282</v>
       </c>
       <c r="E282">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.45">
@@ -15561,7 +15901,7 @@
         <v>283</v>
       </c>
       <c r="E283">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -15579,7 +15919,7 @@
         <v>284</v>
       </c>
       <c r="E284">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15597,10 +15937,13 @@
         <v>285</v>
       </c>
       <c r="E285" s="2">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="F285" s="2"/>
+      <c r="F285" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286" s="2">
@@ -15616,10 +15959,13 @@
         <v>286</v>
       </c>
       <c r="E286" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F286" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F286" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287" s="2">
@@ -15635,10 +15981,13 @@
         <v>287</v>
       </c>
       <c r="E287" s="2">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F287" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>4</v>
       </c>
-      <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A288">
@@ -15654,8 +16003,8 @@
         <v>288</v>
       </c>
       <c r="E288">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.45">
@@ -15672,7 +16021,7 @@
         <v>289</v>
       </c>
       <c r="E289">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -15690,8 +16039,8 @@
         <v>290</v>
       </c>
       <c r="E290">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.45">
@@ -15708,10 +16057,13 @@
         <v>291</v>
       </c>
       <c r="E291" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F291" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F291" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292">
@@ -15727,8 +16079,8 @@
         <v>292</v>
       </c>
       <c r="E292">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.45">
@@ -15745,8 +16097,8 @@
         <v>293</v>
       </c>
       <c r="E293">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.45">
@@ -15763,10 +16115,13 @@
         <v>294</v>
       </c>
       <c r="E294" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F294" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F294" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295">
@@ -15782,7 +16137,7 @@
         <v>295</v>
       </c>
       <c r="E295">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -15800,10 +16155,13 @@
         <v>296</v>
       </c>
       <c r="E296" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F296" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F296" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297">
@@ -15819,8 +16177,8 @@
         <v>297</v>
       </c>
       <c r="E297">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.45">
@@ -15837,8 +16195,8 @@
         <v>298</v>
       </c>
       <c r="E298">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.45">
@@ -15855,8 +16213,8 @@
         <v>299</v>
       </c>
       <c r="E299">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.45">
@@ -15871,8 +16229,8 @@
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.45">
@@ -15904,8 +16262,8 @@
         <v>302</v>
       </c>
       <c r="E302">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.45">
@@ -15922,7 +16280,7 @@
         <v>303</v>
       </c>
       <c r="E303">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -15940,8 +16298,8 @@
         <v>304</v>
       </c>
       <c r="E304">
-        <f t="shared" ref="E304:E333" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ref="E304:E333" ca="1" si="9">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.45">
@@ -15958,10 +16316,13 @@
         <v>305</v>
       </c>
       <c r="E305" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F305" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F305" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A306" s="2">
@@ -15977,10 +16338,13 @@
         <v>306</v>
       </c>
       <c r="E306" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F306" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>2</v>
       </c>
-      <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307">
@@ -15996,8 +16360,8 @@
         <v>307</v>
       </c>
       <c r="E307">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.45">
@@ -16014,8 +16378,8 @@
         <v>308</v>
       </c>
       <c r="E308">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.45">
@@ -16032,10 +16396,13 @@
         <v>309</v>
       </c>
       <c r="E309" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
-      <c r="F309" s="2"/>
+      <c r="F309" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310" s="2">
@@ -16051,10 +16418,13 @@
         <v>310</v>
       </c>
       <c r="E310" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F310" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F310" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A311" s="2">
@@ -16070,10 +16440,13 @@
         <v>311</v>
       </c>
       <c r="E311" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F311" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F311" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312" s="2">
@@ -16089,10 +16462,13 @@
         <v>312</v>
       </c>
       <c r="E312" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F312" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>3</v>
       </c>
-      <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A313">
@@ -16108,8 +16484,8 @@
         <v>313</v>
       </c>
       <c r="E313">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.45">
@@ -16126,10 +16502,13 @@
         <v>314</v>
       </c>
       <c r="E314" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
-      <c r="F314" s="2"/>
+      <c r="F314" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A315">
@@ -16145,7 +16524,7 @@
         <v>315</v>
       </c>
       <c r="E315">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -16163,8 +16542,8 @@
         <v>316</v>
       </c>
       <c r="E316">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.45">
@@ -16181,8 +16560,8 @@
         <v>317</v>
       </c>
       <c r="E317">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.45">
@@ -16199,8 +16578,8 @@
         <v>318</v>
       </c>
       <c r="E318">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.45">
@@ -16217,8 +16596,8 @@
         <v>319</v>
       </c>
       <c r="E319">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.45">
@@ -16233,10 +16612,13 @@
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
-      <c r="F320" s="2"/>
+      <c r="F320" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
@@ -16252,7 +16634,10 @@
       <c r="E321" s="1">
         <v>0</v>
       </c>
-      <c r="F321" s="2"/>
+      <c r="F321" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322">
@@ -16268,8 +16653,8 @@
         <v>322</v>
       </c>
       <c r="E322">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.45">
@@ -16286,10 +16671,13 @@
         <v>323</v>
       </c>
       <c r="E323" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
-      <c r="F323" s="2"/>
+      <c r="F323" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324" s="2">
@@ -16305,10 +16693,13 @@
         <v>324</v>
       </c>
       <c r="E324" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F324" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325" s="2">
@@ -16324,10 +16715,13 @@
         <v>325</v>
       </c>
       <c r="E325" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F325" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F325" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326" s="2">
@@ -16343,10 +16737,13 @@
         <v>326</v>
       </c>
       <c r="E326" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F326" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F326" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327" s="2">
@@ -16362,10 +16759,13 @@
         <v>327</v>
       </c>
       <c r="E327" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
-      <c r="F327" s="2"/>
+      <c r="F327" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328" s="2">
@@ -16381,10 +16781,13 @@
         <v>328</v>
       </c>
       <c r="E328" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="F328" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F328" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329">
@@ -16400,8 +16803,8 @@
         <v>329</v>
       </c>
       <c r="E329">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.45">
@@ -16418,8 +16821,8 @@
         <v>330</v>
       </c>
       <c r="E330">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.45">
@@ -16436,8 +16839,8 @@
         <v>331</v>
       </c>
       <c r="E331">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.45">
@@ -16454,7 +16857,7 @@
         <v>332</v>
       </c>
       <c r="E332">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -16470,10 +16873,13 @@
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F333" s="2"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F333" s="2">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}"/>

--- a/MetroParis.xlsx
+++ b/MetroParis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e388d8049af18740/Bureau/Projet GitHub/PSI Fonctionnel/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF546CC-0758-4B2D-B247-6800EF260704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F197B208-644A-48F0-8459-2F8A9BB775F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0103B7E9-9148-4C8E-B64D-88A4CF3E31BC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="770">
   <si>
     <t>Libelle Line</t>
   </si>
@@ -2336,9 +2336,6 @@
   </si>
   <si>
     <t>ID Station</t>
-  </si>
-  <si>
-    <t>Station Id</t>
   </si>
   <si>
     <t>Station</t>
@@ -2725,7 +2722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46:C333"/>
     </sheetView>
   </sheetViews>
@@ -10401,10 +10398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E322" sqref="E322"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10416,22 +10413,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" t="s">
         <v>765</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>766</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>767</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>768</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>769</v>
-      </c>
-      <c r="F1" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -10526,6 +10523,9 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -10545,6 +10545,9 @@
       <c r="E7">
         <v>3</v>
       </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -10564,6 +10567,9 @@
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -10602,6 +10608,9 @@
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -10640,6 +10649,9 @@
       <c r="E12">
         <v>2</v>
       </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -10659,6 +10671,9 @@
       <c r="E13">
         <v>3</v>
       </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -10697,6 +10712,9 @@
       <c r="E15">
         <v>4</v>
       </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
@@ -10716,6 +10734,9 @@
       <c r="E16">
         <v>2</v>
       </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
@@ -10735,6 +10756,9 @@
       <c r="E17">
         <v>2</v>
       </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
@@ -10754,6 +10778,9 @@
       <c r="E18">
         <v>2</v>
       </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
@@ -10909,6 +10936,9 @@
       <c r="E27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
@@ -10943,6 +10973,9 @@
       <c r="E29">
         <v>2</v>
       </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
@@ -10977,6 +11010,9 @@
       <c r="E31">
         <v>2</v>
       </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
@@ -10996,7 +11032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11014,8 +11050,11 @@
       <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11034,7 +11073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11052,8 +11091,11 @@
       <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11071,8 +11113,11 @@
       <c r="E36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11091,7 +11136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11109,8 +11154,11 @@
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11129,7 +11177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11148,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11166,8 +11214,11 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11186,7 +11237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11205,7 +11256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11222,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11236,8 +11287,11 @@
       <c r="E45" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11251,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11266,10 +11320,10 @@
       </c>
       <c r="E47">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11284,10 +11338,10 @@
       </c>
       <c r="E48">
         <f t="shared" ref="E48:E111" ca="1" si="4">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11302,10 +11356,10 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11322,8 +11376,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11338,10 +11395,10 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11356,10 +11413,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11377,7 +11437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11392,10 +11452,13 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11410,10 +11473,10 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11428,10 +11491,10 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11446,10 +11509,10 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11466,8 +11529,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11482,10 +11548,13 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11500,10 +11569,10 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11518,10 +11587,13 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11536,10 +11608,10 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11554,10 +11626,10 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11572,10 +11644,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11590,10 +11665,13 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11605,10 +11683,10 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11621,8 +11699,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11640,7 +11721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11655,10 +11736,10 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11672,8 +11753,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11687,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11702,10 +11786,10 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11720,10 +11804,13 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11738,10 +11825,10 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11756,10 +11843,13 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11774,10 +11864,13 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11792,10 +11885,13 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11810,10 +11906,10 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11828,10 +11924,13 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -11846,10 +11945,13 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -11864,10 +11966,10 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -11882,10 +11984,10 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -11900,10 +12002,13 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -11918,10 +12023,10 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -11936,10 +12041,10 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -11954,10 +12059,13 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -11975,7 +12083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -11990,10 +12098,10 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12011,7 +12119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12026,10 +12134,13 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12044,10 +12155,10 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12062,10 +12173,13 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12080,10 +12194,13 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12098,10 +12215,10 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12116,10 +12233,10 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12134,7 +12251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12148,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12163,10 +12280,10 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12184,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12201,8 +12318,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12219,8 +12339,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12237,8 +12360,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12253,10 +12379,13 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12274,7 +12403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12291,8 +12420,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12309,8 +12441,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12325,10 +12460,10 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12343,10 +12478,10 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12361,10 +12496,13 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12382,7 +12520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12397,10 +12535,13 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12415,10 +12556,10 @@
       </c>
       <c r="E112">
         <f t="shared" ref="E112:E175" ca="1" si="5">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12433,10 +12574,10 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12448,10 +12589,13 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12464,8 +12608,11 @@
       <c r="E115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -12480,10 +12627,10 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12498,10 +12645,10 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12516,10 +12663,13 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12534,10 +12684,10 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12552,10 +12702,10 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12570,10 +12720,10 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12588,10 +12738,13 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F122">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12606,10 +12759,10 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12624,10 +12777,10 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12642,10 +12795,13 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12660,10 +12816,13 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12678,10 +12837,10 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -12698,8 +12857,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -12714,10 +12876,13 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -12732,10 +12897,10 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12750,10 +12915,10 @@
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -12768,10 +12933,10 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -12786,10 +12951,13 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -12807,7 +12975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -12825,7 +12993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -12843,7 +13011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -12858,10 +13026,13 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -12879,7 +13050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -12894,10 +13065,10 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -12912,10 +13083,10 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -12930,10 +13101,10 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -12945,10 +13116,13 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -12962,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12977,10 +13151,10 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12995,10 +13169,10 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13013,10 +13187,10 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13031,10 +13205,13 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13049,10 +13226,13 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13070,7 +13250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13085,10 +13265,13 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13103,10 +13286,10 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13124,7 +13307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13139,10 +13322,10 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13157,10 +13340,13 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13175,10 +13361,13 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13195,8 +13384,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13211,10 +13403,13 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13229,10 +13424,10 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13247,10 +13442,13 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13265,10 +13463,10 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -13283,10 +13481,10 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -13303,8 +13501,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -13322,7 +13523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -13337,10 +13538,10 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -13358,7 +13559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -13375,8 +13576,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -13391,10 +13595,10 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13411,8 +13615,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -13427,10 +13634,10 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -13445,10 +13652,10 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -13460,10 +13667,10 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -13476,8 +13683,11 @@
       <c r="E172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -13494,8 +13704,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -13510,10 +13723,13 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -13528,10 +13744,10 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -13546,10 +13762,10 @@
       </c>
       <c r="E176">
         <f t="shared" ref="E176:E239" ca="1" si="6">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -13564,10 +13780,10 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -13584,8 +13800,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -13600,10 +13819,10 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -13618,10 +13837,10 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -13636,7 +13855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -13650,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -13665,10 +13884,10 @@
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -13683,10 +13902,10 @@
       </c>
       <c r="E184">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -13701,10 +13920,10 @@
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -13719,10 +13938,10 @@
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -13739,8 +13958,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -13758,7 +13980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -13776,7 +13998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -13791,10 +14013,13 @@
       </c>
       <c r="E190">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -13809,10 +14034,13 @@
       </c>
       <c r="E191">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -13829,8 +14057,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -13847,8 +14078,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -13863,10 +14097,13 @@
       </c>
       <c r="E194">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -13881,10 +14118,13 @@
       </c>
       <c r="E195">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -13899,10 +14139,13 @@
       </c>
       <c r="E196">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -13917,10 +14160,13 @@
       </c>
       <c r="E197">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13935,10 +14181,13 @@
       </c>
       <c r="E198">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13953,10 +14202,10 @@
       </c>
       <c r="E199">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13971,10 +14220,10 @@
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13989,10 +14238,10 @@
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -14007,10 +14256,13 @@
       </c>
       <c r="E202">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -14028,7 +14280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -14046,7 +14298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -14063,8 +14315,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -14079,10 +14334,10 @@
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -14097,10 +14352,13 @@
       </c>
       <c r="E207">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -14118,7 +14376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -14133,10 +14391,10 @@
       </c>
       <c r="E209">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -14151,7 +14409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -14165,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -14180,10 +14438,10 @@
       </c>
       <c r="E212">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -14198,10 +14456,13 @@
       </c>
       <c r="E213">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -14218,8 +14479,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -14234,10 +14498,10 @@
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -14252,10 +14516,10 @@
       </c>
       <c r="E216">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -14270,10 +14534,10 @@
       </c>
       <c r="E217">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -14288,10 +14552,10 @@
       </c>
       <c r="E218">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -14306,10 +14570,13 @@
       </c>
       <c r="E219">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -14324,10 +14591,10 @@
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -14342,10 +14609,10 @@
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -14360,10 +14627,13 @@
       </c>
       <c r="E222">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -14378,10 +14648,10 @@
       </c>
       <c r="E223">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -14396,10 +14666,13 @@
       </c>
       <c r="E224">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -14414,10 +14687,13 @@
       </c>
       <c r="E225">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -14432,10 +14708,13 @@
       </c>
       <c r="E226">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -14450,10 +14729,13 @@
       </c>
       <c r="E227">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -14468,10 +14750,13 @@
       </c>
       <c r="E228">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -14486,10 +14771,13 @@
       </c>
       <c r="E229">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -14506,8 +14794,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -14522,10 +14813,13 @@
       </c>
       <c r="E231">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -14540,10 +14834,13 @@
       </c>
       <c r="E232">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
@@ -14560,8 +14857,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
@@ -14576,10 +14876,10 @@
       </c>
       <c r="E234">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
@@ -14597,7 +14897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14615,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14630,10 +14930,10 @@
       </c>
       <c r="E237">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14650,8 +14950,11 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14666,10 +14969,10 @@
       </c>
       <c r="E239">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14687,7 +14990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14699,10 +15002,10 @@
       </c>
       <c r="E241">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14715,8 +15018,11 @@
       <c r="E242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14731,10 +15037,13 @@
       </c>
       <c r="E243">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14749,10 +15058,10 @@
       </c>
       <c r="E244">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14767,10 +15076,10 @@
       </c>
       <c r="E245">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14788,7 +15097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14803,10 +15112,13 @@
       </c>
       <c r="E247">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
@@ -14821,10 +15133,10 @@
       </c>
       <c r="E248">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14839,10 +15151,13 @@
       </c>
       <c r="E249">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
@@ -14857,10 +15172,10 @@
       </c>
       <c r="E250">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14875,10 +15190,13 @@
       </c>
       <c r="E251">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14893,10 +15211,10 @@
       </c>
       <c r="E252">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14911,10 +15229,13 @@
       </c>
       <c r="E253">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F253">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14929,10 +15250,10 @@
       </c>
       <c r="E254">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14950,7 +15271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14965,10 +15286,13 @@
       </c>
       <c r="E256">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -14986,7 +15310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
@@ -15003,8 +15327,11 @@
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
@@ -15019,7 +15346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
@@ -15032,8 +15359,11 @@
       <c r="E260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
@@ -15048,10 +15378,10 @@
       </c>
       <c r="E261">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
@@ -15063,10 +15393,10 @@
       </c>
       <c r="E262">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
@@ -15079,8 +15409,11 @@
       <c r="E263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
@@ -15095,10 +15428,13 @@
       </c>
       <c r="E264">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
@@ -15113,10 +15449,10 @@
       </c>
       <c r="E265">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
@@ -15131,10 +15467,13 @@
       </c>
       <c r="E266">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
@@ -15151,8 +15490,11 @@
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
@@ -15170,7 +15512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
@@ -15185,10 +15527,13 @@
       </c>
       <c r="E269">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
@@ -15203,10 +15548,10 @@
       </c>
       <c r="E270">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
@@ -15221,15 +15566,15 @@
       </c>
       <c r="E271">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>658</v>
+        <v>468</v>
       </c>
       <c r="C272">
         <v>270</v>
@@ -15239,10 +15584,13 @@
       </c>
       <c r="E272">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
@@ -15257,10 +15605,10 @@
       </c>
       <c r="E273">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
@@ -15272,10 +15620,13 @@
       </c>
       <c r="E274">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
@@ -15289,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
@@ -15304,10 +15655,10 @@
       </c>
       <c r="E276">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
@@ -15322,10 +15673,13 @@
       </c>
       <c r="E277">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
@@ -15340,10 +15694,10 @@
       </c>
       <c r="E278">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -15358,10 +15712,10 @@
       </c>
       <c r="E279">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -15376,10 +15730,10 @@
       </c>
       <c r="E280">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
@@ -15394,10 +15748,13 @@
       </c>
       <c r="E281">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15412,10 +15769,10 @@
       </c>
       <c r="E282">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15430,10 +15787,10 @@
       </c>
       <c r="E283">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15448,10 +15805,10 @@
       </c>
       <c r="E284">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
@@ -15466,10 +15823,13 @@
       </c>
       <c r="E285">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F285">
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
@@ -15484,10 +15844,13 @@
       </c>
       <c r="E286">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15502,10 +15865,13 @@
       </c>
       <c r="E287">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F287">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
@@ -15520,10 +15886,10 @@
       </c>
       <c r="E288">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
@@ -15538,10 +15904,10 @@
       </c>
       <c r="E289">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15556,10 +15922,10 @@
       </c>
       <c r="E290">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15574,10 +15940,13 @@
       </c>
       <c r="E291">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15592,10 +15961,10 @@
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15610,10 +15979,10 @@
       </c>
       <c r="E293">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
@@ -15628,10 +15997,13 @@
       </c>
       <c r="E294">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15649,7 +16021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15664,10 +16036,13 @@
       </c>
       <c r="E296">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15682,10 +16057,10 @@
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15700,10 +16075,10 @@
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15721,7 +16096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15733,10 +16108,10 @@
       </c>
       <c r="E300">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
@@ -15750,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15765,10 +16140,10 @@
       </c>
       <c r="E302">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15783,10 +16158,10 @@
       </c>
       <c r="E303">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15800,11 +16175,11 @@
         <v>304</v>
       </c>
       <c r="E304">
-        <f t="shared" ref="E304:E333" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" ref="E304:E332" ca="1" si="8">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15819,10 +16194,13 @@
       </c>
       <c r="E305">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15837,10 +16215,10 @@
       </c>
       <c r="E306">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15855,10 +16233,10 @@
       </c>
       <c r="E307">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15873,10 +16251,10 @@
       </c>
       <c r="E308">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15891,10 +16269,13 @@
       </c>
       <c r="E309">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15911,8 +16292,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15927,10 +16311,13 @@
       </c>
       <c r="E311">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15945,10 +16332,13 @@
       </c>
       <c r="E312">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15966,7 +16356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15981,10 +16371,13 @@
       </c>
       <c r="E314">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15999,10 +16392,10 @@
       </c>
       <c r="E315">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
@@ -16020,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>316</v>
       </c>
@@ -16035,10 +16428,10 @@
       </c>
       <c r="E317">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>317</v>
       </c>
@@ -16053,10 +16446,10 @@
       </c>
       <c r="E318">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>318</v>
       </c>
@@ -16074,7 +16467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>319</v>
       </c>
@@ -16086,10 +16479,13 @@
       </c>
       <c r="E320">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="F320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>320</v>
       </c>
@@ -16102,8 +16498,11 @@
       <c r="E321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>321</v>
       </c>
@@ -16118,10 +16517,10 @@
       </c>
       <c r="E322">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>322</v>
       </c>
@@ -16138,8 +16537,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16156,8 +16558,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16172,10 +16577,13 @@
       </c>
       <c r="E325">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16192,8 +16600,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16210,8 +16621,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16226,10 +16640,13 @@
       </c>
       <c r="E328">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16247,7 +16664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16265,7 +16682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16280,40 +16697,25 @@
       </c>
       <c r="E331">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>761</v>
+        <v>446</v>
       </c>
       <c r="C332">
         <v>330</v>
       </c>
-      <c r="D332">
-        <v>332</v>
-      </c>
       <c r="E332">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A333">
-        <v>332</v>
-      </c>
-      <c r="B333" t="s">
-        <v>446</v>
-      </c>
-      <c r="C333">
-        <v>331</v>
-      </c>
-      <c r="E333">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F332">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MetroParis.xlsx
+++ b/MetroParis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f05a143ad77a79e0/Bureau/Projet PSI/Projet_PSI_DELAROCHE-Orane_DARMON-Clément_DEGARDIN-Thomas/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e388d8049af18740/Bureau/Projet GitHub/PSI Fonctionnel/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{7EF546CC-0758-4B2D-B247-6800EF260704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4885910-8E19-48FF-AF11-579F62C416E8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F197B208-644A-48F0-8459-2F8A9BB775F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0103B7E9-9148-4C8E-B64D-88A4CF3E31BC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Noeuds" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="770">
   <si>
     <t>Libelle Line</t>
   </si>
@@ -2338,9 +2338,6 @@
     <t>ID Station</t>
   </si>
   <si>
-    <t>Station Id</t>
-  </si>
-  <si>
     <t>Station</t>
   </si>
   <si>
@@ -2354,9 +2351,6 @@
   </si>
   <si>
     <t>Temps de Changement</t>
-  </si>
-  <si>
-    <t>Montparnasse-Bienvenüe</t>
   </si>
 </sst>
 </file>
@@ -2728,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10404,10 +10398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="F333" sqref="F333"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10419,22 +10413,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" t="s">
         <v>765</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>766</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>767</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>768</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>769</v>
-      </c>
-      <c r="F1" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -10512,72 +10506,69 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:F8" ca="1" si="2">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="F7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -10600,26 +10591,25 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -10642,49 +10632,47 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="F13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -10707,94 +10695,90 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="F15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
     </row>
@@ -10937,24 +10921,23 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>27</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="F27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -10975,24 +10958,23 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>27</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>29</v>
       </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -11013,24 +10995,23 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>31</v>
       </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -11052,26 +11033,25 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <f>C32+1</f>
         <v>31</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" ref="D33:D43" si="3">D32+1</f>
+      <c r="D33">
+        <f t="shared" ref="D33:D43" si="2">D32+1</f>
         <v>33</v>
       </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -11082,61 +11062,59 @@
         <v>108</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C43" si="4">C33+1</f>
+        <f t="shared" ref="C34:C43" si="3">C33+1</f>
         <v>32</v>
       </c>
       <c r="D34">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -11147,37 +11125,36 @@
         <v>118</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D37">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="3"/>
+      <c r="D38">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E38" s="2">
-        <v>2</v>
-      </c>
-      <c r="F38" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
     </row>
@@ -11189,11 +11166,11 @@
         <v>124</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="E39">
@@ -11208,11 +11185,11 @@
         <v>128</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E40">
@@ -11220,26 +11197,25 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" si="4"/>
+      <c r="C41">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D41" s="2">
-        <f t="shared" si="3"/>
+      <c r="D41">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="F41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -11250,11 +11226,11 @@
         <v>134</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="E42">
@@ -11269,11 +11245,11 @@
         <v>137</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="E43">
@@ -11311,23 +11287,21 @@
       <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="F45" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>46</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>0</v>
       </c>
     </row>
@@ -11346,7 +11320,7 @@
       </c>
       <c r="E47">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -11363,8 +11337,8 @@
         <v>48</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E111" ca="1" si="5">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ref="E48:E111" ca="1" si="4">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -11381,30 +11355,29 @@
         <v>49</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>48</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>50</v>
       </c>
-      <c r="E50" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F50" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="E50">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -11421,74 +11394,68 @@
         <v>51</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="2">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>50</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>52</v>
       </c>
-      <c r="E52" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>4</v>
       </c>
-      <c r="F52" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>51</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>53</v>
       </c>
-      <c r="E53" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>54</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>3</v>
-      </c>
-      <c r="F53" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="2">
-        <v>52</v>
-      </c>
-      <c r="D54" s="2">
-        <v>54</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -11505,7 +11472,7 @@
         <v>55</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -11523,8 +11490,8 @@
         <v>56</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -11541,52 +11508,50 @@
         <v>57</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>56</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>58</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F58" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="2">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>57</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>59</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="F59" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -11603,29 +11568,28 @@
         <v>60</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="2">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>59</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>61</v>
       </c>
-      <c r="E61" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="F61" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F61">
         <v>5</v>
       </c>
     </row>
@@ -11643,8 +11607,8 @@
         <v>62</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -11661,68 +11625,65 @@
         <v>63</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>65</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="2">
-        <v>62</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66">
         <v>64</v>
       </c>
-      <c r="E64" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F64" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="2">
-        <v>63</v>
-      </c>
-      <c r="D65" s="2">
-        <v>65</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F65" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="1">
-        <v>64</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -11738,6 +11699,9 @@
       <c r="E67">
         <v>0</v>
       </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
@@ -11753,8 +11717,8 @@
         <v>68</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -11771,8 +11735,8 @@
         <v>69</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -11786,22 +11750,24 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>71</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>0</v>
       </c>
     </row>
@@ -11819,29 +11785,28 @@
         <v>72</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>73</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="2">
-        <v>71</v>
-      </c>
-      <c r="D73" s="2">
-        <v>73</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F73" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F73">
         <v>2</v>
       </c>
     </row>
@@ -11859,74 +11824,71 @@
         <v>74</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="2">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>73</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
         <v>75</v>
       </c>
-      <c r="E75" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F75" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E75">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="2">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>74</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76">
         <v>76</v>
       </c>
-      <c r="E76" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F76" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E76">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="2">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>75</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>77</v>
       </c>
-      <c r="E77" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F77" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+      <c r="E77">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -11943,52 +11905,50 @@
         <v>78</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="2">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>77</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
         <v>79</v>
       </c>
-      <c r="E79" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F79" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E79">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="2">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>78</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
         <v>80</v>
       </c>
-      <c r="E80" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F80" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E80">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -12005,7 +11965,7 @@
         <v>81</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -12023,30 +11983,29 @@
         <v>82</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="2">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>81</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
         <v>83</v>
       </c>
-      <c r="E83" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E83">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="F83" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="F83">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -12063,8 +12022,8 @@
         <v>84</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -12081,30 +12040,29 @@
         <v>85</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="2">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>84</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86">
         <v>86</v>
       </c>
-      <c r="E86" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F86" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="E86">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -12121,7 +12079,7 @@
         <v>87</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -12139,8 +12097,8 @@
         <v>88</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -12157,30 +12115,29 @@
         <v>89</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="2">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C90" s="2">
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90">
         <v>88</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>90</v>
       </c>
-      <c r="E90" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F90" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E90">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -12197,52 +12154,50 @@
         <v>91</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="2">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>270</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>90</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
         <v>92</v>
       </c>
-      <c r="E92" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F92" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E92">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="2">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>273</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>91</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
         <v>93</v>
       </c>
-      <c r="E93" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F93" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="E93">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -12259,8 +12214,8 @@
         <v>94</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -12277,38 +12232,36 @@
         <v>95</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>282</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>94</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="E96">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="1">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>285</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1">
+      <c r="D97">
         <v>97</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97">
         <v>0</v>
       </c>
     </row>
@@ -12326,8 +12279,8 @@
         <v>98</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -12344,96 +12297,92 @@
         <v>99</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F100">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="2">
-        <v>98</v>
-      </c>
-      <c r="D100" s="2">
+      <c r="D101">
+        <v>101</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102">
         <v>100</v>
       </c>
-      <c r="E100" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D102">
+        <v>102</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="F100" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="2">
-        <v>99</v>
-      </c>
-      <c r="D101" s="2">
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103">
         <v>101</v>
       </c>
-      <c r="E101" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F101" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="2">
-        <v>100</v>
-      </c>
-      <c r="D102" s="2">
-        <v>102</v>
-      </c>
-      <c r="E102" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F102" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="2">
-        <v>101</v>
-      </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>103</v>
       </c>
-      <c r="E103" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F103" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="E103">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -12450,52 +12399,50 @@
         <v>104</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="2">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>188</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>103</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>105</v>
       </c>
-      <c r="E105" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E105">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="F105" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106">
+        <v>106</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C106" s="2">
-        <v>104</v>
-      </c>
-      <c r="D106" s="2">
-        <v>106</v>
-      </c>
-      <c r="E106" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F106" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="F106">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
@@ -12512,8 +12459,8 @@
         <v>107</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
@@ -12530,30 +12477,29 @@
         <v>108</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="2">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>49</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>107</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>109</v>
       </c>
-      <c r="E109" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F109" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="E109">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
@@ -12570,30 +12516,29 @@
         <v>110</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>309</v>
+      </c>
+      <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
+        <v>111</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C111" s="2">
-        <v>109</v>
-      </c>
-      <c r="D111" s="2">
-        <v>111</v>
-      </c>
-      <c r="E111" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F111" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="F111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
@@ -12610,7 +12555,7 @@
         <v>112</v>
       </c>
       <c r="E112">
-        <f t="shared" ref="E112:E175" ca="1" si="6">RANDBETWEEN(1,4)</f>
+        <f t="shared" ref="E112:E175" ca="1" si="5">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -12628,46 +12573,42 @@
         <v>113</v>
       </c>
       <c r="E113">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="1">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>320</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>112</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E114">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="F114" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+      <c r="F114">
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="1">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1">
+      <c r="D115">
         <v>115</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F115">
         <v>3</v>
       </c>
     </row>
@@ -12685,8 +12626,8 @@
         <v>116</v>
       </c>
       <c r="E116">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -12703,30 +12644,29 @@
         <v>117</v>
       </c>
       <c r="E117">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="2">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>329</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>116</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
         <v>118</v>
       </c>
-      <c r="E118" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F118" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E118">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
@@ -12743,7 +12683,7 @@
         <v>119</v>
       </c>
       <c r="E119">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -12761,7 +12701,7 @@
         <v>120</v>
       </c>
       <c r="E120">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12779,30 +12719,29 @@
         <v>121</v>
       </c>
       <c r="E121">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A122" s="2">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>341</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>120</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122">
         <v>122</v>
       </c>
-      <c r="E122" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E122">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F122">
         <v>3</v>
-      </c>
-      <c r="F122" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
@@ -12819,7 +12758,7 @@
         <v>123</v>
       </c>
       <c r="E123">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -12837,52 +12776,50 @@
         <v>124</v>
       </c>
       <c r="E124">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="2">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>350</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>123</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
         <v>125</v>
       </c>
-      <c r="E125" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F125" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E125">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="2">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>262</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>124</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
         <v>126</v>
       </c>
-      <c r="E126" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E126">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="F126" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="F126">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
@@ -12899,52 +12836,50 @@
         <v>127</v>
       </c>
       <c r="E127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128">
+        <v>126</v>
+      </c>
+      <c r="D128">
+        <v>128</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A128" s="2">
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C128" s="2">
-        <v>126</v>
-      </c>
-      <c r="D128" s="2">
-        <v>128</v>
-      </c>
-      <c r="E128" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="D129">
+        <v>129</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="F128" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C129" s="2">
-        <v>127</v>
-      </c>
-      <c r="D129" s="2">
-        <v>129</v>
-      </c>
-      <c r="E129" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F129" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="F129">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
@@ -12961,8 +12896,8 @@
         <v>130</v>
       </c>
       <c r="E130">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
@@ -12979,8 +12914,8 @@
         <v>131</v>
       </c>
       <c r="E131">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
@@ -12997,30 +12932,29 @@
         <v>132</v>
       </c>
       <c r="E132">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A133" s="2">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
         <v>320</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>131</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
         <v>133</v>
       </c>
-      <c r="E133" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F133" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E133">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -13037,8 +12971,8 @@
         <v>134</v>
       </c>
       <c r="E134">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -13055,7 +12989,7 @@
         <v>135</v>
       </c>
       <c r="E135">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -13073,30 +13007,29 @@
         <v>136</v>
       </c>
       <c r="E136">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A137" s="2">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
         <v>374</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>135</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
         <v>137</v>
       </c>
-      <c r="E137" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F137" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E137">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
@@ -13113,30 +13046,26 @@
         <v>138</v>
       </c>
       <c r="E138">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A139" s="2">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
         <v>380</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>137</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>139</v>
       </c>
-      <c r="E139" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E139">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
-      </c>
-      <c r="F139" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -13153,8 +13082,8 @@
         <v>140</v>
       </c>
       <c r="E140">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -13171,42 +13100,39 @@
         <v>141</v>
       </c>
       <c r="E141">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A142" s="1">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>140</v>
       </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F142" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E142">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A143" s="1">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>389</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>143</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143">
         <v>0</v>
       </c>
     </row>
@@ -13224,8 +13150,8 @@
         <v>144</v>
       </c>
       <c r="E144">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -13242,8 +13168,8 @@
         <v>145</v>
       </c>
       <c r="E145">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -13260,51 +13186,49 @@
         <v>146</v>
       </c>
       <c r="E146">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A147" s="2">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>111</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147">
         <v>145</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147">
         <v>147</v>
       </c>
-      <c r="E147" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E147">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F147">
         <v>3</v>
       </c>
-      <c r="F147" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A148" s="2">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>401</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>146</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148">
         <v>148</v>
       </c>
-      <c r="E148" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E148">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="F148" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F148">
         <v>2</v>
       </c>
     </row>
@@ -13322,30 +13246,29 @@
         <v>149</v>
       </c>
       <c r="E149">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A150" s="2">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>228</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>148</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150">
         <v>150</v>
       </c>
-      <c r="E150" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F150" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+      <c r="E150">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -13362,8 +13285,8 @@
         <v>151</v>
       </c>
       <c r="E151">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
@@ -13380,8 +13303,8 @@
         <v>152</v>
       </c>
       <c r="E152">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
@@ -13398,96 +13321,92 @@
         <v>153</v>
       </c>
       <c r="E153">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A154" s="2">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>416</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>152</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154">
         <v>154</v>
       </c>
-      <c r="E154" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F154" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E154">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F154">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A155" s="2">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
         <v>165</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>153</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>155</v>
       </c>
-      <c r="E155" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E155">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="F155" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="F155">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A156" s="2">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
         <v>419</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>154</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156">
         <v>156</v>
       </c>
-      <c r="E156" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E156">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="F156" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="F156">
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A157" s="2">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>33</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>155</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157">
         <v>157</v>
       </c>
-      <c r="E157" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="F157" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="E157">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
@@ -13504,30 +13423,29 @@
         <v>158</v>
       </c>
       <c r="E158">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A159" s="2">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s">
         <v>39</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>157</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159">
         <v>159</v>
       </c>
-      <c r="E159" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E159">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="F159" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="F159">
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -13544,8 +13462,8 @@
         <v>160</v>
       </c>
       <c r="E160">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
@@ -13562,30 +13480,29 @@
         <v>161</v>
       </c>
       <c r="E161">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A162" s="2">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>431</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>160</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162">
         <v>162</v>
       </c>
-      <c r="E162" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E162">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="F162" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="F162">
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
@@ -13602,8 +13519,8 @@
         <v>163</v>
       </c>
       <c r="E163">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -13620,8 +13537,8 @@
         <v>164</v>
       </c>
       <c r="E164">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
@@ -13638,29 +13555,28 @@
         <v>165</v>
       </c>
       <c r="E165">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>320</v>
+      </c>
+      <c r="C166">
+        <v>164</v>
+      </c>
+      <c r="D166">
+        <v>166</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A166" s="2">
-        <v>165</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C166" s="2">
-        <v>164</v>
-      </c>
-      <c r="D166" s="2">
-        <v>166</v>
-      </c>
-      <c r="E166" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F166" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F166">
         <v>3</v>
       </c>
     </row>
@@ -13678,8 +13594,8 @@
         <v>167</v>
       </c>
       <c r="E167">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
@@ -13696,7 +13612,10 @@
         <v>168</v>
       </c>
       <c r="E168">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F168">
         <v>2</v>
       </c>
     </row>
@@ -13714,7 +13633,7 @@
         <v>169</v>
       </c>
       <c r="E169">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -13732,39 +13651,40 @@
         <v>170</v>
       </c>
       <c r="E170">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A171" s="1">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>455</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171">
         <v>169</v>
       </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E171">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A172" s="1">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>446</v>
       </c>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1">
+      <c r="D172">
         <v>172</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172">
         <v>0</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
@@ -13781,7 +13701,10 @@
         <v>173</v>
       </c>
       <c r="E173">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F173">
         <v>2</v>
       </c>
     </row>
@@ -13799,8 +13722,11 @@
         <v>174</v>
       </c>
       <c r="E174">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -13817,8 +13743,8 @@
         <v>175</v>
       </c>
       <c r="E175">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -13835,8 +13761,8 @@
         <v>176</v>
       </c>
       <c r="E176">
-        <f t="shared" ref="E176:E239" ca="1" si="7">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ref="E176:E239" ca="1" si="6">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -13853,8 +13779,8 @@
         <v>177</v>
       </c>
       <c r="E177">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -13871,8 +13797,11 @@
         <v>178</v>
       </c>
       <c r="E178">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
@@ -13889,8 +13818,8 @@
         <v>179</v>
       </c>
       <c r="E179">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
@@ -13907,7 +13836,7 @@
         <v>180</v>
       </c>
       <c r="E180">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -13922,22 +13851,21 @@
         <v>179</v>
       </c>
       <c r="E181">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A182" s="1">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>477</v>
       </c>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1">
+      <c r="D182">
         <v>182</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182">
         <v>0</v>
       </c>
     </row>
@@ -13955,8 +13883,8 @@
         <v>183</v>
       </c>
       <c r="E183">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -13973,8 +13901,8 @@
         <v>184</v>
       </c>
       <c r="E184">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
@@ -13991,8 +13919,8 @@
         <v>185</v>
       </c>
       <c r="E185">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -14009,29 +13937,28 @@
         <v>186</v>
       </c>
       <c r="E186">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>341</v>
+      </c>
+      <c r="C187">
+        <v>185</v>
+      </c>
+      <c r="D187">
+        <v>187</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A187" s="2">
-        <v>186</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C187" s="2">
-        <v>185</v>
-      </c>
-      <c r="D187" s="2">
-        <v>187</v>
-      </c>
-      <c r="E187" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F187" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F187">
         <v>3</v>
       </c>
     </row>
@@ -14049,7 +13976,7 @@
         <v>188</v>
       </c>
       <c r="E188">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -14067,206 +13994,197 @@
         <v>189</v>
       </c>
       <c r="E189">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A190" s="2">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>499</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190">
         <v>188</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190">
         <v>190</v>
       </c>
-      <c r="E190" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F190" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E190">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A191" s="2">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191">
         <v>189</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191">
         <v>191</v>
       </c>
-      <c r="E191" s="2">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E191">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>502</v>
+      </c>
+      <c r="C192">
+        <v>190</v>
+      </c>
+      <c r="D192">
+        <v>192</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>165</v>
+      </c>
+      <c r="C193">
+        <v>191</v>
+      </c>
+      <c r="D193">
+        <v>193</v>
+      </c>
+      <c r="E193">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>505</v>
+      </c>
+      <c r="C194">
+        <v>192</v>
+      </c>
+      <c r="D194">
+        <v>194</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>508</v>
+      </c>
+      <c r="C195">
+        <v>193</v>
+      </c>
+      <c r="D195">
+        <v>195</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>511</v>
+      </c>
+      <c r="C196">
+        <v>194</v>
+      </c>
+      <c r="D196">
+        <v>196</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="F191" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>234</v>
+      </c>
+      <c r="C197">
+        <v>195</v>
+      </c>
+      <c r="D197">
+        <v>197</v>
+      </c>
+      <c r="E197">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F197">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A192" s="2">
-        <v>191</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C192" s="2">
-        <v>190</v>
-      </c>
-      <c r="D192" s="2">
-        <v>192</v>
-      </c>
-      <c r="E192" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F192" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A193" s="2">
-        <v>192</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C193" s="2">
-        <v>191</v>
-      </c>
-      <c r="D193" s="2">
-        <v>193</v>
-      </c>
-      <c r="E193" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F193" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>188</v>
+      </c>
+      <c r="C198">
+        <v>196</v>
+      </c>
+      <c r="D198">
+        <v>198</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F198">
         <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A194" s="2">
-        <v>193</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C194" s="2">
-        <v>192</v>
-      </c>
-      <c r="D194" s="2">
-        <v>194</v>
-      </c>
-      <c r="E194" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F194" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A195" s="2">
-        <v>194</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C195" s="2">
-        <v>193</v>
-      </c>
-      <c r="D195" s="2">
-        <v>195</v>
-      </c>
-      <c r="E195" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F195" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A196" s="2">
-        <v>195</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C196" s="2">
-        <v>194</v>
-      </c>
-      <c r="D196" s="2">
-        <v>196</v>
-      </c>
-      <c r="E196" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F196" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A197" s="2">
-        <v>196</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C197" s="2">
-        <v>195</v>
-      </c>
-      <c r="D197" s="2">
-        <v>197</v>
-      </c>
-      <c r="E197" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F197" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A198" s="2">
-        <v>197</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C198" s="2">
-        <v>196</v>
-      </c>
-      <c r="D198" s="2">
-        <v>198</v>
-      </c>
-      <c r="E198" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F198" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -14283,8 +14201,8 @@
         <v>199</v>
       </c>
       <c r="E199">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -14301,8 +14219,8 @@
         <v>200</v>
       </c>
       <c r="E200">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -14319,29 +14237,28 @@
         <v>201</v>
       </c>
       <c r="E201">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A202" s="2">
+      <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s">
         <v>49</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202">
         <v>200</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202">
         <v>202</v>
       </c>
-      <c r="E202" s="2">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E202">
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="F202" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F202">
         <v>3</v>
       </c>
     </row>
@@ -14359,8 +14276,8 @@
         <v>203</v>
       </c>
       <c r="E203">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -14377,30 +14294,29 @@
         <v>204</v>
       </c>
       <c r="E204">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A205" s="2">
+      <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>56</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205">
         <v>203</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205">
         <v>205</v>
       </c>
-      <c r="E205" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F205" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E205">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
@@ -14417,30 +14333,29 @@
         <v>206</v>
       </c>
       <c r="E206">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A207" s="2">
+      <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s">
         <v>380</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207">
         <v>205</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207">
         <v>207</v>
       </c>
-      <c r="E207" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F207" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="E207">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -14457,7 +14372,7 @@
         <v>208</v>
       </c>
       <c r="E208">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -14475,38 +14390,36 @@
         <v>209</v>
       </c>
       <c r="E209">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>538</v>
+      </c>
+      <c r="C210">
+        <v>208</v>
+      </c>
+      <c r="E210">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A210" s="1">
-        <v>209</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C210" s="1">
-        <v>208</v>
-      </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A211" s="1">
+      <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>541</v>
       </c>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1">
+      <c r="D211">
         <v>211</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211">
         <v>0</v>
       </c>
     </row>
@@ -14524,52 +14437,50 @@
         <v>212</v>
       </c>
       <c r="E212">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>547</v>
+      </c>
+      <c r="C213">
+        <v>211</v>
+      </c>
+      <c r="D213">
+        <v>213</v>
+      </c>
+      <c r="E213">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>550</v>
+      </c>
+      <c r="C214">
+        <v>212</v>
+      </c>
+      <c r="D214">
+        <v>214</v>
+      </c>
+      <c r="E214">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A213" s="2">
-        <v>212</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C213" s="2">
-        <v>211</v>
-      </c>
-      <c r="D213" s="2">
-        <v>213</v>
-      </c>
-      <c r="E213" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F213" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A214" s="2">
-        <v>213</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C214" s="2">
-        <v>212</v>
-      </c>
-      <c r="D214" s="2">
-        <v>214</v>
-      </c>
-      <c r="E214" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F214" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="F214">
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
@@ -14586,7 +14497,7 @@
         <v>215</v>
       </c>
       <c r="E215">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -14604,8 +14515,8 @@
         <v>216</v>
       </c>
       <c r="E216">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
@@ -14622,7 +14533,7 @@
         <v>217</v>
       </c>
       <c r="E217">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14640,30 +14551,29 @@
         <v>218</v>
       </c>
       <c r="E218">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A219" s="2">
+      <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" t="s">
         <v>329</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219">
         <v>217</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219">
         <v>219</v>
       </c>
-      <c r="E219" s="2">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E219">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="F219" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="F219">
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
@@ -14680,8 +14590,8 @@
         <v>220</v>
       </c>
       <c r="E220">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
@@ -14698,30 +14608,29 @@
         <v>221</v>
       </c>
       <c r="E221">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A222" s="2">
+      <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" t="s">
         <v>20</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222">
         <v>220</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222">
         <v>222</v>
       </c>
-      <c r="E222" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F222" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E222">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
@@ -14738,118 +14647,113 @@
         <v>223</v>
       </c>
       <c r="E223">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>574</v>
+      </c>
+      <c r="C224">
+        <v>222</v>
+      </c>
+      <c r="D224">
+        <v>224</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A224" s="2">
+      <c r="F224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>577</v>
+      </c>
+      <c r="C225">
         <v>223</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C224" s="2">
-        <v>222</v>
-      </c>
-      <c r="D224" s="2">
+      <c r="D225">
+        <v>225</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>162</v>
+      </c>
+      <c r="C226">
         <v>224</v>
       </c>
-      <c r="E224" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F224" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A225" s="2">
-        <v>224</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C225" s="2">
-        <v>223</v>
-      </c>
-      <c r="D225" s="2">
+      <c r="D226">
+        <v>226</v>
+      </c>
+      <c r="E226">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>416</v>
+      </c>
+      <c r="C227">
         <v>225</v>
       </c>
-      <c r="E225" s="2">
-        <f t="shared" ca="1" si="7"/>
+      <c r="D227">
+        <v>227</v>
+      </c>
+      <c r="E227">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>505</v>
+      </c>
+      <c r="C228">
+        <v>226</v>
+      </c>
+      <c r="D228">
+        <v>228</v>
+      </c>
+      <c r="E228">
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="F225" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A226" s="2">
-        <v>225</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C226" s="2">
-        <v>224</v>
-      </c>
-      <c r="D226" s="2">
-        <v>226</v>
-      </c>
-      <c r="E226" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F226" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A227" s="2">
-        <v>226</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C227" s="2">
-        <v>225</v>
-      </c>
-      <c r="D227" s="2">
-        <v>227</v>
-      </c>
-      <c r="E227" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F227" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A228" s="2">
-        <v>227</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C228" s="2">
-        <v>226</v>
-      </c>
-      <c r="D228" s="2">
-        <v>228</v>
-      </c>
-      <c r="E228" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F228" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="F228">
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
@@ -14866,7 +14770,10 @@
         <v>229</v>
       </c>
       <c r="E229">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F229">
         <v>2</v>
       </c>
     </row>
@@ -14884,74 +14791,74 @@
         <v>230</v>
       </c>
       <c r="E230">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231">
+        <v>229</v>
+      </c>
+      <c r="D231">
+        <v>231</v>
+      </c>
+      <c r="E231">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>188</v>
+      </c>
+      <c r="C232">
+        <v>230</v>
+      </c>
+      <c r="D232">
+        <v>232</v>
+      </c>
+      <c r="E232">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A231" s="2">
-        <v>230</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C231" s="2">
-        <v>229</v>
-      </c>
-      <c r="D231" s="2">
+      <c r="F232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>297</v>
+      </c>
+      <c r="C233">
         <v>231</v>
       </c>
-      <c r="E231" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F231" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A232" s="2">
-        <v>231</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C232" s="2">
-        <v>230</v>
-      </c>
-      <c r="D232" s="2">
-        <v>232</v>
-      </c>
-      <c r="E232" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F232" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A233" s="2">
-        <v>232</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C233" s="2">
-        <v>231</v>
-      </c>
-      <c r="D233" s="2">
+      <c r="D233">
         <v>233</v>
       </c>
-      <c r="E233" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F233" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="E233">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
@@ -14968,7 +14875,7 @@
         <v>234</v>
       </c>
       <c r="E234">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -14986,8 +14893,8 @@
         <v>235</v>
       </c>
       <c r="E235">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -15004,8 +14911,8 @@
         <v>236</v>
       </c>
       <c r="E236">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -15022,30 +14929,29 @@
         <v>237</v>
       </c>
       <c r="E237">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A238" s="2">
+      <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" t="s">
         <v>59</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238">
         <v>236</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238">
         <v>238</v>
       </c>
-      <c r="E238" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F238" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="E238">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F238">
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
@@ -15062,8 +14968,8 @@
         <v>239</v>
       </c>
       <c r="E239">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -15080,65 +14986,61 @@
         <v>240</v>
       </c>
       <c r="E240">
-        <f t="shared" ref="E240:E303" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ref="E240:E303" ca="1" si="7">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A241" s="1">
+      <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" t="s">
         <v>598</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241">
         <v>239</v>
       </c>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E241">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>309</v>
+      </c>
+      <c r="D242">
+        <v>242</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>431</v>
+      </c>
+      <c r="C243">
+        <v>241</v>
+      </c>
+      <c r="D243">
+        <v>243</v>
+      </c>
+      <c r="E243">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1">
-        <v>242</v>
-      </c>
-      <c r="E242" s="1">
-        <v>0</v>
-      </c>
-      <c r="F242" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A243" s="2">
-        <v>242</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C243" s="2">
-        <v>241</v>
-      </c>
-      <c r="D243" s="2">
-        <v>243</v>
-      </c>
-      <c r="E243" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F243" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="F243">
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
@@ -15155,8 +15057,8 @@
         <v>244</v>
       </c>
       <c r="E244">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
@@ -15173,8 +15075,8 @@
         <v>245</v>
       </c>
       <c r="E245">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
@@ -15191,30 +15093,29 @@
         <v>246</v>
       </c>
       <c r="E246">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A247" s="2">
+      <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" t="s">
         <v>250</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247">
         <v>245</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247">
         <v>247</v>
       </c>
-      <c r="E247" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F247" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E247">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
@@ -15231,30 +15132,29 @@
         <v>248</v>
       </c>
       <c r="E248">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A249" s="2">
+      <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" t="s">
         <v>613</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249">
         <v>247</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249">
         <v>249</v>
       </c>
-      <c r="E249" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F249" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="E249">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
@@ -15271,30 +15171,29 @@
         <v>250</v>
       </c>
       <c r="E250">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A251" s="2">
+      <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" t="s">
         <v>619</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251">
         <v>249</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251">
         <v>251</v>
       </c>
-      <c r="E251" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F251" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E251">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
@@ -15311,30 +15210,29 @@
         <v>252</v>
       </c>
       <c r="E252">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A253" s="2">
+      <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" t="s">
         <v>341</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253">
         <v>251</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253">
         <v>253</v>
       </c>
-      <c r="E253" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F253" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+      <c r="E253">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F253">
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
@@ -15351,8 +15249,8 @@
         <v>254</v>
       </c>
       <c r="E254">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
@@ -15369,8 +15267,8 @@
         <v>255</v>
       </c>
       <c r="E255">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
@@ -15387,7 +15285,10 @@
         <v>256</v>
       </c>
       <c r="E256">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F256">
         <v>2</v>
       </c>
     </row>
@@ -15405,64 +15306,60 @@
         <v>257</v>
       </c>
       <c r="E257">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A258" s="2">
+      <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" t="s">
         <v>550</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258">
         <v>256</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258">
         <v>258</v>
       </c>
-      <c r="E258" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F258" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E258">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A259" s="1">
+      <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" t="s">
         <v>637</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259">
         <v>257</v>
       </c>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E259">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A260" s="1">
+      <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" t="s">
         <v>547</v>
       </c>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1">
+      <c r="D260">
         <v>260</v>
       </c>
-      <c r="E260" s="1">
+      <c r="E260">
         <v>0</v>
       </c>
-      <c r="F260" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F260">
         <v>2</v>
       </c>
     </row>
@@ -15480,8 +15377,8 @@
         <v>261</v>
       </c>
       <c r="E261">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
@@ -15495,48 +15392,45 @@
         <v>260</v>
       </c>
       <c r="E262">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A263" s="1">
+      <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" t="s">
         <v>39</v>
       </c>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1">
+      <c r="D263">
         <v>263</v>
       </c>
-      <c r="E263" s="1">
+      <c r="E263">
         <v>0</v>
       </c>
-      <c r="F263" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>43</v>
+      </c>
+      <c r="C264">
+        <v>262</v>
+      </c>
+      <c r="D264">
+        <v>264</v>
+      </c>
+      <c r="E264">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A264" s="2">
-        <v>263</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C264" s="2">
-        <v>262</v>
-      </c>
-      <c r="D264" s="2">
-        <v>264</v>
-      </c>
-      <c r="E264" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F264" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F264">
         <v>2</v>
       </c>
     </row>
@@ -15554,52 +15448,50 @@
         <v>265</v>
       </c>
       <c r="E265">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A266" s="2">
+      <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" t="s">
         <v>181</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266">
         <v>264</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266">
         <v>266</v>
       </c>
-      <c r="E266" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F266" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E266">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>188</v>
+      </c>
+      <c r="C267">
+        <v>265</v>
+      </c>
+      <c r="D267">
+        <v>267</v>
+      </c>
+      <c r="E267">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F267">
         <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A267" s="2">
-        <v>266</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C267" s="2">
-        <v>265</v>
-      </c>
-      <c r="D267" s="2">
-        <v>267</v>
-      </c>
-      <c r="E267" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F267" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.45">
@@ -15616,29 +15508,28 @@
         <v>268</v>
       </c>
       <c r="E268">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A269" s="2">
+      <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" t="s">
         <v>121</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269">
         <v>267</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269">
         <v>269</v>
       </c>
-      <c r="E269" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F269" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="E269">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F269">
         <v>2</v>
       </c>
     </row>
@@ -15656,8 +15547,8 @@
         <v>270</v>
       </c>
       <c r="E270">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.45">
@@ -15674,30 +15565,29 @@
         <v>271</v>
       </c>
       <c r="E271">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A272" s="2">
+      <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" t="s">
         <v>468</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272">
         <v>270</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272">
         <v>272</v>
       </c>
-      <c r="E272" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F272" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+      <c r="E272">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
@@ -15714,42 +15604,39 @@
         <v>273</v>
       </c>
       <c r="E273">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A274" s="1">
+      <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" t="s">
         <v>204</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274">
         <v>272</v>
       </c>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F274" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="E274">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A275" s="1">
+      <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" t="s">
         <v>662</v>
       </c>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1">
+      <c r="D275">
         <v>275</v>
       </c>
-      <c r="E275" s="1">
+      <c r="E275">
         <v>0</v>
       </c>
     </row>
@@ -15767,30 +15654,29 @@
         <v>276</v>
       </c>
       <c r="E276">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A277" s="2">
+      <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" t="s">
         <v>219</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277">
         <v>275</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277">
         <v>277</v>
       </c>
-      <c r="E277" s="2">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E277">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F277" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="F277">
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.45">
@@ -15807,8 +15693,8 @@
         <v>278</v>
       </c>
       <c r="E278">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.45">
@@ -15825,7 +15711,7 @@
         <v>279</v>
       </c>
       <c r="E279">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15843,30 +15729,29 @@
         <v>280</v>
       </c>
       <c r="E280">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A281" s="2">
+      <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" t="s">
         <v>98</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281">
         <v>279</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281">
         <v>281</v>
       </c>
-      <c r="E281" s="2">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E281">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F281" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="F281">
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.45">
@@ -15883,7 +15768,7 @@
         <v>282</v>
       </c>
       <c r="E282">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -15901,7 +15786,7 @@
         <v>283</v>
       </c>
       <c r="E283">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -15919,74 +15804,71 @@
         <v>284</v>
       </c>
       <c r="E284">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>159</v>
+      </c>
+      <c r="C285">
+        <v>283</v>
+      </c>
+      <c r="D285">
+        <v>285</v>
+      </c>
+      <c r="E285">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A285" s="2">
+      <c r="F285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>502</v>
+      </c>
+      <c r="C286">
         <v>284</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C285" s="2">
-        <v>283</v>
-      </c>
-      <c r="D285" s="2">
+      <c r="D286">
+        <v>286</v>
+      </c>
+      <c r="E286">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287">
         <v>285</v>
       </c>
-      <c r="E285" s="2">
-        <f t="shared" ca="1" si="8"/>
+      <c r="D287">
+        <v>287</v>
+      </c>
+      <c r="E287">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F287">
         <v>3</v>
-      </c>
-      <c r="F285" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A286" s="2">
-        <v>285</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C286" s="2">
-        <v>284</v>
-      </c>
-      <c r="D286" s="2">
-        <v>286</v>
-      </c>
-      <c r="E286" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F286" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A287" s="2">
-        <v>286</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C287" s="2">
-        <v>285</v>
-      </c>
-      <c r="D287" s="2">
-        <v>287</v>
-      </c>
-      <c r="E287" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="F287" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.45">
@@ -16003,8 +15885,8 @@
         <v>288</v>
       </c>
       <c r="E288">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.45">
@@ -16021,8 +15903,8 @@
         <v>289</v>
       </c>
       <c r="E289">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.45">
@@ -16039,30 +15921,29 @@
         <v>290</v>
       </c>
       <c r="E290">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A291" s="2">
+      <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" t="s">
         <v>613</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291">
         <v>289</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291">
         <v>291</v>
       </c>
-      <c r="E291" s="2">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E291">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-      <c r="F291" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="F291">
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.45">
@@ -16079,7 +15960,7 @@
         <v>292</v>
       </c>
       <c r="E292">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -16097,30 +15978,29 @@
         <v>293</v>
       </c>
       <c r="E293">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A294" s="2">
+      <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C294" s="2">
+      <c r="B294" t="s">
+        <v>262</v>
+      </c>
+      <c r="C294">
         <v>292</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294">
         <v>294</v>
       </c>
-      <c r="E294" s="2">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E294">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F294">
         <v>4</v>
-      </c>
-      <c r="F294" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.45">
@@ -16137,30 +16017,29 @@
         <v>295</v>
       </c>
       <c r="E295">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A296" s="2">
+      <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" t="s">
         <v>350</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296">
         <v>294</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296">
         <v>296</v>
       </c>
-      <c r="E296" s="2">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E296">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F296" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+      <c r="F296">
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.45">
@@ -16177,7 +16056,7 @@
         <v>297</v>
       </c>
       <c r="E297">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -16195,7 +16074,7 @@
         <v>298</v>
       </c>
       <c r="E298">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16213,38 +16092,36 @@
         <v>299</v>
       </c>
       <c r="E299">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A300" s="1">
+      <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" t="s">
         <v>713</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300">
         <v>298</v>
       </c>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E300">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A301" s="1">
+      <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" t="s">
         <v>716</v>
       </c>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1">
+      <c r="D301">
         <v>301</v>
       </c>
-      <c r="E301" s="1">
+      <c r="E301">
         <v>0</v>
       </c>
     </row>
@@ -16262,8 +16139,8 @@
         <v>302</v>
       </c>
       <c r="E302">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.45">
@@ -16280,8 +16157,8 @@
         <v>303</v>
       </c>
       <c r="E303">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.45">
@@ -16298,52 +16175,47 @@
         <v>304</v>
       </c>
       <c r="E304">
-        <f t="shared" ref="E304:E333" ca="1" si="9">RANDBETWEEN(1,4)</f>
+        <f t="shared" ref="E304:E332" ca="1" si="8">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>262</v>
+      </c>
+      <c r="C305">
+        <v>303</v>
+      </c>
+      <c r="D305">
+        <v>305</v>
+      </c>
+      <c r="E305">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A305" s="2">
+      <c r="F305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>619</v>
+      </c>
+      <c r="C306">
         <v>304</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C305" s="2">
-        <v>303</v>
-      </c>
-      <c r="D305" s="2">
-        <v>305</v>
-      </c>
-      <c r="E305" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="F305" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A306" s="2">
-        <v>305</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C306" s="2">
-        <v>304</v>
-      </c>
-      <c r="D306" s="2">
+      <c r="D306">
         <v>306</v>
       </c>
-      <c r="E306" s="2">
-        <f t="shared" ca="1" si="9"/>
+      <c r="E306">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
-      </c>
-      <c r="F306" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.45">
@@ -16360,7 +16232,7 @@
         <v>307</v>
       </c>
       <c r="E307">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -16378,96 +16250,92 @@
         <v>308</v>
       </c>
       <c r="E308">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A309" s="2">
+      <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" t="s">
         <v>499</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309">
         <v>307</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309">
         <v>309</v>
       </c>
-      <c r="E309" s="2">
-        <f t="shared" ca="1" si="9"/>
+      <c r="E309">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310">
+        <v>308</v>
+      </c>
+      <c r="D310">
+        <v>310</v>
+      </c>
+      <c r="E310">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="F309" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A310" s="2">
+      <c r="F310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>574</v>
+      </c>
+      <c r="C311">
         <v>309</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C310" s="2">
-        <v>308</v>
-      </c>
-      <c r="D310" s="2">
+      <c r="D311">
+        <v>311</v>
+      </c>
+      <c r="E311">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312">
         <v>310</v>
       </c>
-      <c r="E310" s="2">
-        <f t="shared" ca="1" si="9"/>
+      <c r="D312">
+        <v>312</v>
+      </c>
+      <c r="E312">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="F310" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A311" s="2">
-        <v>310</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C311" s="2">
-        <v>309</v>
-      </c>
-      <c r="D311" s="2">
-        <v>311</v>
-      </c>
-      <c r="E311" s="2">
-        <f t="shared" ca="1" si="9"/>
+      <c r="F312">
         <v>4</v>
-      </c>
-      <c r="F311" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A312" s="2">
-        <v>311</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C312" s="2">
-        <v>310</v>
-      </c>
-      <c r="D312" s="2">
-        <v>312</v>
-      </c>
-      <c r="E312" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F312" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.45">
@@ -16484,30 +16352,29 @@
         <v>313</v>
       </c>
       <c r="E313">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A314" s="2">
+      <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" t="s">
         <v>90</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314">
         <v>312</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314">
         <v>314</v>
       </c>
-      <c r="E314" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F314" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+      <c r="E314">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F314">
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.45">
@@ -16524,8 +16391,8 @@
         <v>315</v>
       </c>
       <c r="E315">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.45">
@@ -16542,8 +16409,8 @@
         <v>316</v>
       </c>
       <c r="E316">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.45">
@@ -16560,8 +16427,8 @@
         <v>317</v>
       </c>
       <c r="E317">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.45">
@@ -16578,8 +16445,8 @@
         <v>318</v>
       </c>
       <c r="E318">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.45">
@@ -16596,46 +16463,42 @@
         <v>319</v>
       </c>
       <c r="E319">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A320" s="1">
+      <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" t="s">
         <v>749</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320">
         <v>318</v>
       </c>
-      <c r="D320" s="1"/>
-      <c r="E320" s="1">
-        <f t="shared" ca="1" si="9"/>
+      <c r="E320">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="F320" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+      <c r="F320">
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A321" s="1">
+      <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" t="s">
         <v>749</v>
       </c>
-      <c r="C321" s="1"/>
-      <c r="D321" s="1">
+      <c r="D321">
         <v>321</v>
       </c>
-      <c r="E321" s="1">
+      <c r="E321">
         <v>0</v>
       </c>
-      <c r="F321" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+      <c r="F321">
         <v>2</v>
       </c>
     </row>
@@ -16653,140 +16516,134 @@
         <v>322</v>
       </c>
       <c r="E322">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A323" s="2">
+      <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" t="s">
         <v>159</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323">
         <v>321</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323">
         <v>323</v>
       </c>
-      <c r="E323" s="2">
-        <f t="shared" ca="1" si="9"/>
+      <c r="E323">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>502</v>
+      </c>
+      <c r="C324">
+        <v>322</v>
+      </c>
+      <c r="D324">
+        <v>324</v>
+      </c>
+      <c r="E324">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>419</v>
+      </c>
+      <c r="C325">
+        <v>323</v>
+      </c>
+      <c r="D325">
+        <v>325</v>
+      </c>
+      <c r="E325">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="F323" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A324" s="2">
-        <v>323</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C324" s="2">
-        <v>322</v>
-      </c>
-      <c r="D324" s="2">
+      <c r="F325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>39</v>
+      </c>
+      <c r="C326">
         <v>324</v>
       </c>
-      <c r="E324" s="2">
-        <f t="shared" ca="1" si="9"/>
+      <c r="D326">
+        <v>326</v>
+      </c>
+      <c r="E326">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327">
+        <v>325</v>
+      </c>
+      <c r="D327">
+        <v>327</v>
+      </c>
+      <c r="E327">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>374</v>
+      </c>
+      <c r="C328">
+        <v>326</v>
+      </c>
+      <c r="D328">
+        <v>328</v>
+      </c>
+      <c r="E328">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="F324" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A325" s="2">
-        <v>324</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C325" s="2">
-        <v>323</v>
-      </c>
-      <c r="D325" s="2">
-        <v>325</v>
-      </c>
-      <c r="E325" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="F325" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A326" s="2">
-        <v>325</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C326" s="2">
-        <v>324</v>
-      </c>
-      <c r="D326" s="2">
-        <v>326</v>
-      </c>
-      <c r="E326" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="F326" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A327" s="2">
-        <v>326</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C327" s="2">
-        <v>325</v>
-      </c>
-      <c r="D327" s="2">
-        <v>327</v>
-      </c>
-      <c r="E327" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F327" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A328" s="2">
-        <v>327</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C328" s="2">
-        <v>326</v>
-      </c>
-      <c r="D328" s="2">
-        <v>328</v>
-      </c>
-      <c r="E328" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="F328" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+      <c r="F328">
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.45">
@@ -16803,7 +16660,7 @@
         <v>329</v>
       </c>
       <c r="E329">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -16821,8 +16678,8 @@
         <v>330</v>
       </c>
       <c r="E330">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.45">
@@ -16839,8 +16696,8 @@
         <v>331</v>
       </c>
       <c r="E331">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.45">
@@ -16848,36 +16705,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>761</v>
+        <v>446</v>
       </c>
       <c r="C332">
         <v>330</v>
       </c>
-      <c r="D332">
-        <v>332</v>
-      </c>
       <c r="E332">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A333" s="1">
-        <v>332</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C333" s="1">
-        <v>331</v>
-      </c>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F333" s="2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F332">
         <v>2</v>
       </c>
     </row>
